--- a/deuChatbot/research_result/beomi_KcELECTRA-base_(1500_0)_RecursiveCharacterTextSplitter.xlsx
+++ b/deuChatbot/research_result/beomi_KcELECTRA-base_(1500_0)_RecursiveCharacterTextSplitter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,39 +451,1814 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT-3.5</t>
+          <t>EEVE Korean</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9893677507513837</v>
+        <v>0.6920032251171258</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 한의예과는 수능(일반학생전형)을 통해 모집하는 단위이며, 해당 전형에 대한 수능최저기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>최저학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8894541560287761</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 정시 성적 4.6이면 추합가능할까요?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 정시 성적이 4.6이라면 동명대학교 e비즈니스학과에 합격할 가능성이 있습니다. 하지만 경쟁률과 입학 요건은 학년도마다 다를 수 있으니, 가장 최신 정보를 확인하기 위해서는 공식 입시 자료나 해당 대학의 입학처를 확인하는 것이 좋습니다. 또한, 대학들은 다양한 요소들을 고려하여 학생을 선발하므로, 정시 성적 외에도 내신 성적이 잘 관리되어 있고, 비교과 활동이나 자기소개서 같은 다른 평가 요소들도 준비되어 있는지 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Based on the provided Context, the average scores for the initial successful applicants and the final enrolled students in the e비즈니스학과 (e-Business Department) are as follows:
+- **Initial Successful Applicants:**
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 317.20 (평균)
+  - 영어 등급: 3.20 (평균)
+  - 수능 4개 영역 등급: 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- **Final Enrolled Students:**
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급: 3.66 (평균)
+  - 수능 4개 영역 등급: 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+If your 수능 4개 영역 등급 is 4.6, it is slightly above the average for both the initial successful applicants (4.17) and the final enrolled students (4.53). While it is not guaranteed, there is a possibility of being accepted through 충원 합격 (additional admissions) if your other scores (국어, 수학, 탐구, and 영어) are competitive. 
+For a more accurate assessment, you may want to compare your total 표준 변환 점수 합 with the averages provided. If your total score is close to or above the averages, your chances of being accepted through 충원 합격 may be higher.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8964351261700947</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준을 적용합니다. 구체적인 내용은 다음과 같습니다:
+1. 인문사회과학대학, 상경대학 모집단위 및 패션디자인학과: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%. 가산점은 없습니다.
+2. 의료·보건·생활대학, 공과대학, ICCT융합공과대학 모집단위: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%. 수학(미적분 또는 기하) 응시자는 해당 과목을 선택한 경우 취득 표준점수의 10% 가산점을 받습니다.
+3. 한의예과: 국어(화법과작문 또는 언어와매체) 25% + 수학(미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%. 가산점은 없습니다.
+4. 예술디자인체육대학 모집단위(패션디자인학과 제외): 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 영역 중 상위 3개 영역 반영. 가산점은 없습니다.
+5. 수능 한국사는 반드시 응시해야 합니다.
+또한, 일부 모집단위에서는 수능 반영영역과 가산점에 차이가 있으니, 지원하려는 구체적인 학과에 대한 정보를 반드시 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 다군 수능(일반학생전형)의 전형요소 반영비율은 100% 수능 성적입니다. 추가적인 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.901642513565878</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 동의대학교 법경찰행정학부의 합격 가능성이나 안정권에 대한 정확한 평균 성적을 제공하기 위해서는 최근 입시 결과와 경쟁률, 그리고 해당 학과의 구체적인 모집 요강에 대한 정보가 필요합니다. 또한, 대학들은 매년 입학 기준과 선발 방법을 조정할 수 있기 때문에 과거 데이터도 참고용으로만 사용되어야 합니다.
+동의대학교 법경찰행정학부에 지원하기 전에 다음과 같은 단계를 고려해 보세요:
+1. 최근 입시 결과와 경쟁률 확인하기: 동의대학교 홈페이지나 교육부 공식 웹사이트에서 관련 정보를 찾아보거나, 해당 학과의 입학 사무실에 직접 문의하세요. 이는 합격 가능성에 대한 더 정확한 아이디어를 제공할 것입니다.
+2. 모집 요강 분석하기: 법경찰행정학부의 정시 모집 요강을 검토하여 지원 자격, 선발 기준, 그리고 가산점이나 특별 전형과 같은 추가 고려 사항을 이해하세요.
+3. 본인의 성적 평가하기: 본인의 내신 성적을 해당 학과의 합격선에 비교해 보세요. 또한, 수능 시험에서 얻은 표준 점수(백분위)를 분석하여 경쟁력을 파악하는 것이 도움이 됩니다.
+4. 입시 컨설턴트나 상담가와 상담하기: 입시 전문가와 상담하면 본인의 상황에 맞는 맞춤형 조언을 받을 수 있으며, 합격 가능성을 더 잘 평가할 수 있습니다.
+5. 수시 지원 고려하기: 정시 외에도 동의대학교 법경찰행정학부에 수시로 지원하는 것을 고려해 보세요. 일부 대학은 내신 성적이 높거나 관련 활동을 한 학생들을 위한 특별 전형을 제공합니다.
+결론적으로, 정확한 평균 성적을 제공하기 위해서는 구체적인 입시 데이터와 모집 요강에 대한 정보가 필요합니다. 하지만 이러한 단계를 따르면 본인의 합격 가능성을 더 잘 이해하고 지원 전략을 세울 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부의 정시 모집단위는 법학과와 경찰행정학과로 나뉩니다. 각 학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+### 법학과
+- **최종등록자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 315.78
+  - 영어 등급: 3.11
+  - 수능 4개 영역 등급: 4.27
+  - 수능 4개 영역 표준 변환 점수 합: 437.89
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 325.29
+  - 영어 등급: 3.00
+  - 수능 4개 영역 등급: 3.98
+  - 수능 4개 영역 표준 변환 점수 합: 448.29
+### 경찰행정학과
+- **최종등록자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+  - 영어 등급: 4.00
+  - 수능 4개 영역 등급: 4.12
+  - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **법학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 325점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 315점 이상, 수능 4개 영역 표준 변환 점수 합 약 438점 이상)
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9087783908962723</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도에 신설된 라이프융합대학의 세부 전공은 다음과 같이 구성되어 있습니다:
+1. 스마트헬스케어학과 (교직과정)
+2. 스마트웰니스학과 (비교직과정)
+3. 스마트푸드테크학과 (비교직과정)
+4. 스마트뷰티산업학과 (비교직과정)
+5. 스마트패션산업학과 (비교직과정)
+6. 스마트리빙산업학과 (비교직과정)
+7. 스마트커뮤니케이션학과 (비교직과정)
+8. 스마트콘텐츠학과 (비교직과정)
+9. 스마트게임앤애니메이션학과 (비교직과정)
+10. 스마트미디어공학과 (비교직과정)
+11. 스마트자동차융합공학과 (비교직과정)
+12. 스마트전자공학과 (비교직과정)
+13. 스마트IoT융합공학과 (비교직과정)
+14. 스마트로봇공학과 (비교직과정)
+15. 스마트에너지공학과 (비교직과정)
+16. 스마트환경공학과 (비교직과정)
+17. 스마트건설융합학과 (비교직과정)
+18. 스마트물류산업학과 (비교직과정)
+19. 스마트창업경영학과 (비교직과정)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9218734918191891</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동의대학교는 다양한 학과에 따라 합격선이 다르기 때문에 구체적인 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다. 하지만 일반적으로 정시 성적이 높을수록 합격 가능성이 높아집니다. 또한, 대학은 학생부 교과성적(내신)과 면접 점수 등도 고려하므로 이러한 요소들도 종합적으로 평가됩니다.
+추합 가능 여부를 정확히 판단하려면 해당 학과의 정시 합격선과 추합 가능성을 확인하는 것이 중요합니다. 동의대학교 입학처 공식 웹사이트나 입시 상담센터에 문의하여 구체적인 정보를 확인하시는 것을 추천합니다. 또한, 본인의 학생부 교과성적(내신)과 면접 준비 상태도 고려하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9488954997134554</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 나군 전형(일반학생전형, 실기/실적전형)의 합격자 발표는 2024년 2월 2일(금) 오후 2시에 이루어집니다. 합격자는 입학안내 홈페이지에서 개별적으로 조회할 수 있으며, 등록은 지정된 기간 내에 학교 지정은행에 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+- 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+- 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+- 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+- 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9587120220845933</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 가군에서는 다음과 같은 학과들이 실기고사를 실시합니다:
+1. 미술대학 - 회화, 조소, 도예, 공예, 패션디자인, 시각정보디자인, 산업디자인, 공간디자인, 광고홍보학전공
+2. 음악대학 - 성악, 작곡, 관현악, 피아노, 오르간, 기타, 바이올린, 비올라, 첼로, 더블베이스, 플루트, 오보에, 클라리넷, 바순, 호른, 트럼펫, 트롬본, 유포니움튜바, 타악기
+3. 무용예술대학 - 발레, 현대무용, 한국무용, 실용무용학전공
+4. 연극영화학과 - 연기, 연출, 극작, 방송영상제작학전공
+5. 체육교육과 - 체육교육(체육교사자격증)
+6. 스포츠과학부 - 스포츠과학(스포츠지도사자격증)
+7. 간호대학 - 간호학
+8. 치위생학과 - 치위생학
+9. 방사선학과 - 방사선학
+10. 임상병리학과 - 임상병리학
+11. 물리치료학과 - 물리치료학
+12. 작업치료학과 - 작업치료학
+13. 응급구조학과 - 응급구조학
+14. 식품영양학과 - 식품영양학
+15. 유아교육과 - 유아교육(유치원교사자격증)
+16. 특수교육과 - 특수교육(특수학교 교사자격증)
+17. 간호대학 - 간호학 (간호대학 편입학)
+18. 치위생학과 - 치위생학 (치위생학과 편입학)
+19. 방사선학과 - 방사선학 (방사선학과 편입학)
+20. 임상병리학과 - 임상병리학 (임상병리학과 편입학)
+21. 물리치료학과 - 물리치료학 (물리치료학과 편입학)
+22. 작업치료학과 - 작업치료학 (작업치료학과 편입학)
+23. 응급구조학과 - 응급구조학 (응급구조학과 편입학)
+24. 식품영양학과 - 식품영양학 (식품영양학과 편입학)
+25. 유아교육과 - 유아교육 (유아교육과 편입학)
+26. 특수교육과 - 특수교육 (특수교육과 편입학)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+3. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9613694829363941</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서는 나군 실기/실적(경기실적우수자전형) 전형요소에서 출결이 12%의 반영 비율로 고려됩니다.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.961391504332692</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 가군 수능(일반학생전형) 및 실기/실적(일반학생전형) 모집단위에서는 전형 요소 반영비율이 다음과 같습니다:
+- 가군 수능 (일반학생전형): 모든 모집단위(레저스포츠학과, 태권도학과 제외)에 대해 100% 수능성적 반영
+- 가군 실기/실적(일반학생전형): 레저스포츠학과와 태권도학과에 대해 30%는 학생부 성적, 70%는 실기성적 반영</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9617530353006207</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 표에 따르면, 2024학년도 수능(일반학생전형)에서 소프트웨어공학부의 최초합격자 평균 성적을 확인할 수 있습니다. 해당 학과의 모집 인원은 135명이며, 지원자는 총 687명이 있었습니다. 경쟁률은 5.1:1이었습니다.
+수능(일반학생전형)에서 소프트웨어공학부의 최초합격자 평균 성적을 계산하려면 다음과 같은 공식을 사용할 수 있습니다:
+평균 = (합계 점수 / 총 지원자 수)
+이 경우, 합계 점수는 국어 + 수학 + 탐구(2개 과목)의 표준 변환 점수를 모두 더한 값입니다. 이 표에 따르면 소프트웨어공학부의 평균은 다음과 같습니다:
+평균 = (1087.4 / 687) = 15.89
+따라서, 2024학년도 수능(일반학생전형)에서 소프트웨어공학부 합격자의 평균 성적을 대략적으로 추정하면 표준 변환 점수 합계로 15.89입니다. 하지만 이 값은 표에 제공된 데이터를 기반으로 한 것이며, 실제 성적과 다를 수 있음을 유의해 주세요.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>### 2024학년도 소프트웨어공학부 합격자 평균 성적
+#### 최초합격자
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 330.11
+- **영어 등급**: 3.30
+- **수능 4개 영역 등급**: 4.12
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 450.71
+#### 최종등록자
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 317.87
+- **영어 등급**: 3.77
+- **수능 4개 영역 등급**: 4.49
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 434.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9633936285154117</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 물론이죠, 동의대학교의 정시 일정에 대한 개요를 제공해 드리겠습니다:
+1. 원서접수 기간: 2023년 12월 29일(목)부터 2024년 1월 6일(토)까지입니다. 마감일은 2024년 1월 6일(토) 오후 6시이며, 원서접수는 인터넷 접수만 가능합니다.
+2. 전형료 납부: 원서접수를 완료한 후 전형료를 납부해야 하며, 수험번호가 부여됩니다. 전형료는 전자결제만 가능하며, 결제 도중 문제가 발생하면 즉시 원서접수 대행업체에 연락하여 접수 여부를 확인하세요.
+3. 서류 제출 대상자: 서류 제출이 필요한 지원자는 지정된 기간 내에 관련 서류를 우편으로 보내야 합니다.
+4. 합격자 발표: 최초합격자부터 2차 충원합격자까지, 전형 일정표에 명시된 날짜에 홈페이지를 통해 발표됩니다. 등록(입학)을 원하지 않는 경우 반드시 해당 기간 내에 연락하여 등록 포기를 해야 합니다.
+5. 등록금 납부: 합격자는 지정된 기간 내에 입학 안내 홈페이지에서 등록금을 납부해야 하며, 기한 내 납부를 하지 않을 경우 입학 포기자로 간주됩니다.
+6. 기타 유의사항: 지원자는 정시 모집요강과 수험생 유의사항을 반드시 숙지하고, 거짓 자료 제출이나 부정행위 시 입학 허가가 취소될 수 있음을 주의하세요. 또한, 고교 졸업 예정자 중 당해 연도에 졸업하지 못하는 경우 합격이 취소됩니다.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**
+   - **일정:** 2024년 1월 2일(화)
+   - **비고:** 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**
+   - **일정:** 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - **비고:** http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**
+   - **일정:** 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - **비고:** 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **실기고사**
+   - **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**
+     - **일정:** 2024년 1월 16일(화)
+     - **비고:** 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**
+     - **일정:** 2024년 1월 17일(수)
+     - **비고:** 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **합격자 발표 및 등록금 납부**
+   - **최초 합격자 발표**
+     - **일정:** 2024년 2월 2일(금) 14:00
+     - **비고:** 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - **최초 합격자 등록**
+     - **일정:** 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - **비고:** 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 1차 (인터넷) 발표**
+     - **일정:** 2024년 2월 14일(수) 09:00
+     - **비고:** 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 1차 (인터넷) 등록**
+     - **일정:** 2024년 2월 14일(수) 09:00 ~ 16:00
+     - **비고:** 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 2차 (인터넷) 발표**
+     - **일정:** 2024년 2월 15일(목) 09:00
+     - **비고:** 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 2차 (인터넷) 등록**
+     - **일정:** 2024년 2월 15일(목) 09:00 ~ 16:00
+     - **비고:** 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 3차 이후 (개별 전화 통보) 발표**
+     - **일정:** 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - **비고:** 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 3차 이후 (개별 전화 통보) 등록**
+     - **일정:** 개별 전화 통보 시 안내
+     - **비고:** 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+**추가 유의사항:**
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9646616254771105</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 해당 질문은 명확하지 않습니다. '실기고사'라는 용어는 다양한 시험이나 평가를 의미할 수 있으며, 구체적인 정보는 제공되지 않았습니다. 그러나 일반적으로 실기고사는 대학 입학 시험이나 채용 과정의 일부로 실시되는 경우가 많습니다. 구체적인 정보를 제공해주시면 더 잘 도와드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>대기실 및 입실시간 안내
+2024. 01. 12.(금) 14:00 이후입학안내 홈페이지에서 조회</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9646644515319274</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 표에 따르면, 2024학년도 수능(일반학생전형)에서 소프트웨어공학부의 최초 합격자 평균 성적을 다음과 같이 확인할 수 있습니다:
+국어 + 수학 + 탐구(2개 과목) (가산점 포함) 표준 변환 점수 합: {평균 = 384.06, 표준 편차 = 15.79}
+영어 등급: {평균 = 2.00, 표준 편차 = 0.00}
+수능 4개 영역 등급: {평균 = 4.00, 표준 편차 = 0.00}
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합: {평균 = 384.06, 표준 편차 = 15.79}</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 330.11
+- 영어 등급: 3.30
+- 수능 4개 영역 등급: 4.12
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 450.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9653664634268557</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 해당 정보는 제공된 맥락에 명시되어 있지 않습니다. 정확한 정보를 위해서는 공식 대학 웹사이트나 입학 안내 책자를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9679885343332217</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요?? 그리고 유아교육학과는 이 성적으로 어렵겠죠 ?</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 정시 성적이 4.75라면 일부 대학에서는 유아교육과에 지원할 수 있는 가능성이 있습니다. 그러나 합격 가능성을 정확히 판단하기 위해서는 해당 대학의 정시 모집 요강과 입학을 위한 최소 자격 기준(CUA)을 확인하는 것이 중요합니다. 또한, 각 대학은 자체적인 평가 기준을 가지고 있으며, 이는 학업 성적뿐만 아니라 면접이나 서류 평가를 포함할 수도 있다는 점을 유의해야 합니다.
+정확한 정보를 얻기 위해서는 지원하고자 하는 대학의 정시 모집 요강과 입학을 위한 최소 자격 기준(CUA)을 확인하세요. 또한, 유아교육과에 지원하는 데 필요한 추가 요구 사항이나 전형 요소도 고려하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **중어중국학과**: 5.68 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9718268338701441</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 충원합격자 발표는 전형일정 표에 명시된 대로 2024년 2월 15일(목)부터 2월 20일(화)까지 이루어집니다. 합격 여부는 전형일정에서 명시한 날짜에 홈페이지를 통해 확인하셔야 하며, 최초합격자 및 1차, 2차 충원합격자에게는 개별 연락을 하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>충원 합격자 발표 일정은 다음과 같습니다:
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+3. **3차 이후 충원 합격자 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 (개별 전화 통보)
+모든 발표는 홈페이지를 통해 개별 조회할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9718883642500925</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 추가합격자 발표는 나군 학생부종합(평생학습자전형|성인학습자(정원내·외)전형|재직자전형) 전형일정 표에 명시되어 있습니다. 1차, 2차 충원합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 이루어집니다. 추가합격자는 개별 전화 통보로 안내되며, 합격 여부 미확인으로 인해 등록하지 못한 경우에도 입학 포기자로 간주됩니다. 지정된 기한 내에 등록금을 납부하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>추가합격자 발표 일정은 다음과 같습니다:
+1. **1차 추가합격자 발표**: 2024년 2월 14일(수) 09:00
+2. **2차 추가합격자 발표**: 2024년 2월 15일(목) 09:00
+3. **3차 이후 추가합격자 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 (개별 전화 통보)
+모든 발표는 홈페이지를 통해 개별 조회할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9728657950500402</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비38번 이정도면 예비합격 가능할지 궁금합니다.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가에서 합격 가능성을 예측하기 위해서는 여러 요소를 고려해야 합니다. 하지만, 제공된 정보만으로는 정확한 평가를 하기 어렵습니다. 다음은 고려해볼 수 있는 요소들입니다:
+1. 서류 평가 점수: 지원자의 내신 성적과 비교과 활동(창의적 체험활동, 동아리활동, 진로활동 등)이 서류 평가에 영향을 미칩니다. 이 점수에 대한 구체적인 정보가 없다면 합격 가능성을 판단하기 어렵습니다.
+2. 면접평가 점수: 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가는 학업역량, 전공적합성, 문제해결능력 등을 평가하는 개별면접을 포함합니다. 이 점수에 대한 구체적인 정보가 없다면 합격 가능성을 판단하기 어렵습니다.
+3. 동점자 처리 기준: 만약 여러 지원자가 같은 점수를 받았다면, 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가에서 제시된 동점자 처리 기준에 따라 순위가 결정됩니다. 이 경우, 면접고사 성적 상위자, 서류 평가 공동체역량 영역 성적 상위자, 서류 평가 전공적합성 영역 성적 상위자, 교과 성적 상위자를 기준으로 합니다.
+4. 경쟁률: 합격 가능성을 판단하기 위해서는 해당 학과에 지원하는 다른 지원자들의 수와 그들의 전반적인 성적을 고려하는 것이 중요합니다. 경쟁률이 높을수록 합격하기가 더 어렵습니다.
+5. 추가 서류 제출 및 검증: 최종 등록 전에 제출된 서류를 검증하고 필요한 추가 문서를 제출해야 할 수도 있습니다. 이 과정에서 문제가 발생하면 합격 가능성이 영향을 받을 수 있습니다.
+결론적으로, 구체적인 점수나 정보가 없다면 예비38번의 합격 가능성을 정확히 예측하기는 어렵습니다. 하지만 위에서 언급한 요소들을 고려하여 자신의 경쟁력을 평가해 볼 수는 있습니다. 또한, 해당 학과에 지원하는 다른 지원자들의 성적을 비교하고, 면접 준비와 서류 제출을 철저히 하는 것이 합격 가능성을 높이는 데 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9735933357319655</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부 신설 정보가 궁금합니다. 이 학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교의 라이프융합학부는 2019년도에 신설된 학부로, 다양한 산업 분야에서 창업과 투자에 필요한 지식과 기술을 갖춘 인재를 양성하기 위해 설립되었습니다. 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학전공: 이 전공은 창업가 정신 함양 및 사업 계획 수립 능력 향상을 목표로 하며, 창업 과정 전반에 대한 이해를 돕고 성공적인 사업을 위한 실무 능력을 배양합니다.
+2. 실용음악·뮤지컬전공: 이 전공은 음악 산업에서 활동할 수 있는 실력 있는 아티스트와 공연자를 양성하는 것을 목적으로 합니다. 실용적인 음악 교육 및 공연 기법을 가르치고, 다양한 장르의 음악을 다루며, 뮤지컬 제작에 대한 교육을 제공합니다.
+3. 뉴미디어작곡전공: 이 전공은 디지털 시대에 적합한 작곡가 및 멀티미디어 콘텐츠 창작자를 양성하는 것을 목표로 합니다. 음악 이론과 작곡 기법을 가르치고, 다양한 미디어를 활용한 작곡 기술을 습득하게 하며, 컴퓨터 프로그래밍과 소프트웨어 사용 능력을 배양합니다.
+4. 라이프생활문화학전공: 이 전공은 현대 사회의 다양한 생활 문화 현상에 대한 이해를 바탕으로 한 창의적이고 실용적인 인재를 양성하는 것을 목적으로 합니다. 라이프스타일 디자인, 소비자 행동 분석, 마케팅 전략 수립 등 관련 분야를 가르칩니다.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9737453299534461</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 네, 소프트웨어융합학과에 입학하기 위해서는 일반적으로 내신 성적이 높을수록 유리합니다. 하지만, 정시 모집에서는 학생부 교과성적(내신)과 대학수학능력시험(수능) 점수를 모두 고려하여 합격 여부를 결정합니다.
+소프트웨어융합학과는 경쟁률이 높은 인기 있는 학과이므로, 해당 학과의 평균 내신은 매년 변동될 수 있습니다. 하지만 일반적으로 소프트웨어융합학과에 입학하기 위해서는 내신 성적이 5등급보다 높아야 합니다. 또한, 대학수학능력시험(수능) 성적도 중요하며, 특히 수학 가형이나 나형과 같은 관련 과목이 중요합니다.
+정시 모집에서는 학생부 교과성적과 수능 점수를 합산하여 합격 여부를 결정합니다. 내신 성적이 5등급인 경우, 수능에서 좋은 성적을 거두어 전형을 보완하는 것이 필요합니다. 또한, 대학별 고사나 면접 등 추가 평가 요소가 있을 수 있으니 해당 대학의 입시 요강을 반드시 확인하시기 바랍니다.
+결론적으로 소프트웨어융합학과에 입학하기 위해서는 5등급보다 높은 내신 성적이 유리하지만, 최종 합격 여부는 학생부 교과성적과 대학수학능력시험 점수 모두를 고려하여 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9745911526032542</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 일부 전형에서 수능최저학력기준을 적용하는 경우가 있습니다. 하지만 이는 대학과 모집단위에 따라 다를 수 있으므로 구체적인 정보는 해당 대학의 입학안내 홈페이지를 확인하거나 직접 문의하시는 것이 좋습니다. 일반적으로 정시모집에서는 학생부종합전형이나 실기고사 등 다른 요소들이 더 중요하게 고려되므로, 수능최저학력기준은 일부 전형에만 적용되거나 그 기준이 상대적으로 낮을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9765240369223549</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요 ..?</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 정시 모집에서 충원합격자 발표는 여러 차례에 걸쳐 이루어집니다. 구체적인 차수는 대학마다 다를 수 있지만, 일반적으로 다음과 같은 단계를 따릅니다:
+1. 1차 충원합격자 발표: 이 단계에서 가장 먼저 합격한 학생들이 선발되며, 이는 보통 해당 학기의 2월 초에 이루어집니다.
+2. 2차 충원합격자 발표: 첫 번째 차수에서 미충원한 인원에 대해 추가로 학생들을 선발하는 단계입니다. 이 발표는 일반적으로 1차 발표 이후 몇 일 후에 이루어지며, 또한 2월 초에 진행됩니다.
+3. 3차 이후 충원합격자 발표: 1차와 2차에서 미충원한 인원이 있을 경우, 대학은 계속해서 추가로 학생들을 선발할 수 있습니다. 이 단계는 보통 2월 말이나 3월 초에 이루어집니다.
+각 대학의 구체적인 일정과 차수는 다를 수 있으므로, 지원하고자 하는 특정 대학의 입학 안내 홈페이지를 확인하여 정확한 정보를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. 
+- 1차 발표: 2024. 02. 14.(수) 09:00
+- 2차 발표: 2024. 02. 15.(목) 09:00
+- 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9775754606290235</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 맥락에 따르면, 2024학년도에 동의대학교에서 신설된 학과에 대한 정보는 없습니다. 그러나 입학 안내 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하시면 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9789683835304694</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동의대학교 정시 모집에서 보육가정상담학과 일반학생전형에 지원하실 때 본인의 환산등급을 고려하여 합격 가능성을 판단할 수 있습니다. 하지만 최종 결정은 경쟁률, 전년도 합격자 성적, 그리고 대학별 평가 기준 등 다양한 요소에 따라 달라질 수 있음을 유의해야 합니다.
+동의대학교의 정시 모집에서 보육가정상담학과 일반학생전형은 학생부 교과(60%)와 수능성적(40%)을 반영하여 합격자를 선발합니다. 본인의 환산등급이 높을수록 경쟁력이 더 좋아집니다. 하지만, 전년도 합격자들의 평균 성적과 해당 학과의 경쟁률을 고려하는 것이 중요합니다.
+동의대학교의 보육가정상담학과 일반학생전형에 지원하실 때는 다음과 같은 단계를 따라야 합니다:
+1. 동의대학교 입학처 홈페이지에서 정시 모집 요강을 확인하세요.
+2. 본인의 수능 성적과 학생부 교과 성적을 환산하여 계산하세요.
+3. 전년도 합격자들의 평균 성적과 해당 학과의 경쟁률을 분석하세요.
+4. 본인의 환산등급이 경쟁력을 가질 수 있는지 평가하고, 추합 가능성을 고려하세요.
+5. 지원하고자 하는 학과에 대한 요구사항과 선호하는 전공을 충족하는지 확인하세요.
+6. 원서 접수 기간 내에 동의대학교 입학처 홈페이지에서 온라인 원서를 제출하세요.
+7. 합격자 발표 및 등록 일정에 맞춰 결과를 확인하고 필요한 절차를 완료하세요.
+추합은 정시 모집에서 추가로 합격자를 선발하는 과정으로, 보통 최초 합격자의 미등록 인원이 발생했을 때 이루어집니다. 본인의 환산등급이 높을수록 추합 가능성도 더 좋아지지만, 최종 결정은 대학의 평가 기준과 전년도 합격자 성적에 따라 달라질 수 있습니다.
+추합 가능성을 정확히 예측하기는 어렵기 때문에, 본인의 환산등급과 경쟁력을 신중하게 고려하고 지원하고자 하는 학과의 요구사항을 충족하는지 확인하는 것이 중요합니다. 또한, 동의대학교의 정시 모집 요강을 주의 깊게 읽고 모든 마감 기한을 준수하는 것을 잊지 마세요.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 보육가정상담학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 보육가정상담학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.980812411880445</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 나군 학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형) 면접은 일반적으로 해당 전형에 대한 서류 평가가 완료된 후 실시됩니다. 구체적인 날짜와 시간은 대학 웹사이트나 입학처에서 발표하는 공지사항을 참고하시기 바랍니다. 정확한 정보를 위해서는 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 방문하거나 해당 기관에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.981457782569207</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 표에 제공된 정보에 따르면, 정시모집 일반학생전형(나군)에서 전자공학과는 2023학년도 모집요강 기준으로 1차 충원합격자 발표가 있었습니다. 그러나 전년도에 대한 구체적인 정보나 추가적인 충원 합격 정보는 제공되지 않았습니다. 정확한 정보를 위해서는 해당 대학의 입학관리처에 직접 문의하거나 이전 년도의 모집요강을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 36차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9821677119406544</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요??</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 아니요, 다군 수능(일반학생전형)에 지원할 때는 자기소개서를 제출하지 않습니다. 이 전형은 오직 수능 성적만을 반영하여 합격자를 선발하기 때문입니다. 그러나 최종 등록자 중 외국고교 졸업예정자는 졸업 후 발급받은 졸업증명서(아포스티유 확인서 또는 영사확인)를 2024년 2월 16일(금)까지 추가로 제출해야 한다는 점을 유의하세요.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9822555818841637</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 학생부교과 전형에서는 학생의 출결 상황을 반영합니다. 특히 나군 실기/실적(경기실적우수자전형)과 나군 학생부종합(조기취업형계약학과전형)의 경우입니다. 결석 일수에 따라 점수가 차등 부여되며, 미인정, 사고, 무단의 지각/조퇴/결과 3회는 결석 1회로 간주됩니다. 또한 교과 성적 산출 시 동점자 처리 기준에서도 출결 상황을 고려합니다.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9825034877020664</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 체육학과 실기고사는 대구대학교 캠퍼스에서 진행됩니다. 구체적인 장소는 다음과 같습니다:
+대구대학교 본관(대학본부)
+주소: 경상북도 경산시 대명동 산1-1번지
+실기고사 당일에는 지정된 장소에서 해당 종목에 대한 안내를 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>대기실 및 입실시간 안내
+2024. 01. 12.(금) 14:00 이후입학안내 홈페이지에서 조회</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9826791184443735</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요ㅠㅠ 붙을까요?</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 게임공학과 예비번호 7번을 받으신 경우, 최종 합격 여부는 여러 가지 요소에 따라 달라집니다. 나군 수능(일반학생전형), 실기/실적(일반학생전형) 전형에서 가장 중요한 요소 중 하나는 수능 성적입니다. 해당 모집단위에서는 수능 성적을 100% 반영하므로, 본인의 수능 점수가 합격선에 가까울수록 합격 가능성이 더 높아집니다.
+또한, 게임공학과는 ICT융합공과대학에 속해 있으며, 이 대학은 공학계열 학과로 분류됩니다. 따라서 해당 모집단위에 지원하기 위해서는 수학(미적분/기하) 또는 통계 과목에서 일정 수준의 성적을 요구합니다. 본인의 수능 성적과 합격 기준에 대한 자세한 정보는 ipsi.deu.ac.kr/main.do에서 확인하시기 바랍니다.
+마지막으로, 게임공학과는 실기나 실적이 반영되는 전형은 아니지만, 디자인조형학과와 체육학과 같은 일부 모집단위는 실기나 실적을 고려하므로, 해당 학과에 지원하신 경우 본인의 관련 분야 실적이나 실기가 합격 가능성을 높일 수 있습니다.
+결론적으로 예비번호 7번을 받으신 것은 경쟁이 치열하다는 것을 의미하지만, 최종 합격 여부는 본인의 수능 성적, 수학 과목 성적이 요구 기준에 부합하는지, 그리고 해당 학과에 지원하지 않았더라도 관련 분야에서의 실적이나 실기가 있는지 여부에 따라 달라질 것입니다.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9830770324410003</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요???</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동의대학교의 정시 모집에서 소프트웨어공학부에 지원할 수 있습니다. 하지만 합격 가능성을 판단하기 위해서는 여러 가지 요소를 고려해야 합니다. 다음은 고려해볼 만한 요소들입니다:
+1. 학업 성적: 4.2라는 성적을 가지고 있다면, 소프트웨어공학과 같은 경쟁이 치열한 프로그램에 입학하는 데 있어 유리한 위치에 있을 수 있습니다. 하지만 합격 가능성을 결정하기 위해서는 해당 학과에서 요구하는 최소 학력 기준(CUA)을 확인해야 합니다.
+2. 모집군: 동의대학교는 정시모집에서 가, 나, 다 세 가지 모집을 진행합니다. 소프트웨어공학부는 주로 나군에 속해 있습니다. 따라서 지원하고자 하는 모집군이 본인의 성적과 일치하는지 확인하세요.
+3. 경쟁률: 합격 가능성을 판단하기 위해서는 최근 몇 년 간의 입학 경쟁률을 확인하는 것이 중요합니다. 경쟁률이 높을수록 합격하기가 더 어려울 수 있지만, 본인의 학업 성과와 비교하여 경쟁력을 평가해 볼 필요가 있습니다.
+4. 전형 요소: 동의대학교는 학생부종합전형(교과)과 학생부종합전형(조기취업계약학과) 등 다양한 전형을 제공합니다. 소프트웨어공학부에 지원할 때 교과 성적 외에도 자기소개서, 면접, 서류평가 등의 요소를 고려하세요.
+5. 추가 합격 기회: 동의대학교는 정시모집에서 일부 학과에 대해 추가 합격 기회를 제공합니다. 이는 본인의 성적이 해당 학과의 최소 입학 기준에 미치지 못해도 추가로 평가받을 수 있는 기회를 의미합니다. 소프트웨어공학부가 이 범주에 속하는지 확인하세요.
+6. 특별전형: 동의대학교는 농어촌학생, 저소득층 학생, 특성화고졸업자 등 다양한 특별전형을 제공합니다. 본인의 상황에 해당되는 전형이 있다면 이를 활용하여 합격 가능성을 높일 수 있습니다.
+7. 면접 준비: 소프트웨어공학과 같은 경쟁이 치열한 프로그램에 지원할 때는 면접 준비가 매우 중요합니다. 본인의 학업 성과, 관심사, 진로 목표 등을 잘 정리하여 면접관에게 효과적으로 전달할 수 있도록 연습하세요.
+결론적으로, 4.2라는 성적을 가지고 있다면 동의대학교의 소프트웨어공학부에 합격할 가능성이 있습니다. 하지만 경쟁률, 전형 요소, 추가 합격 기회 등 여러 요소를 고려하여 본인의 합격 가능성을 평가해야 합니다. 또한, 면접 준비에 시간을 투자하고 본인의 강점을 효과적으로 전달할 수 있도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.984156739685482</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도에는 다음과 같은 학과들이 실기/실적 위주 전형으로 모집됩니다:
+1. 공학계열: 건축공학과, 도시공학부(도시행정학과, 도시설계학과), 토목환경공학과, 기계공학과, 전기전자공학과, 컴퓨터소프트웨어공학과, 정보통신공학과, 전자전기공학과, 산업경영공학과, 신재생에너지융합공학과
+2. 공예디자인대학: 도자기공예과, 금속공예과, 섬유미술학과, 생활실용화공학과, 시각정보디자인과, 패션디자인과, 실내디자인과, 제품디자인과, 가구디자인과, 자동차디자인과
+3. 예술대학: 음악과(성악전공, 작곡전공, 관현악전공), 무용과, 연극영화과, 미술학과, 사진영상과, 만화애니메이션과, 스포츠과학부(스포츠건강관리전공, 체육교육전공)
+4. 보건복지대학: 간호학과, 치위생학과, 방사선학과, 임상병리학과, 물리치료학과, 작업치료학과, 사회복지학과, 식품영양학과, 유아교육과, 특수교육과, 스마트헬스케어융합학과
+5. 경영대학: 경영학과, 회계세무학과, 금융보험과, 국제통상과, 무역학과, 창업경영학과, 호텔외식조리관광학부(호텔경영전공, 외식산업전공, 관광경영전공)
+6. 사회과학대학: 경찰행정학과, 행정학과, 사회복지학과, 법학과, 정치외교학과, 경제학과, 부동산학과, 글로벌무역학과, 국제통상학과, 스마트도시융합학과
+7. 공학계열(한의예과): 한의예과
+8. 의학전문대학원: 치의학과
+9. 약학대학: 약학부
+10. 간호대학: 간호학과
+이 학과들은 2024학년도 실기/실적 위주 전형으로 모집되며, 구체적인 지원 자격 및 제출 서류는 해당 학과에 따라 다를 수 있습니다. 자세한 정보는 동의대학교 입학처 공식 웹사이트를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+3. 레저스포츠학과
+4. 음악학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9843606967888598</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2024학년도 나군 실기/실적 전형에서 디자인조형학과는 시각디자인, 산업디자인, 공예디자인 세 가지 실기종목에 대한 실기고사가 있습니다. 구체적인 일정은 다음과 같습니다:
+1. 시각디자인, 산업디자인, 공예디자인 기초디자인: 2023년 12월 16일(토)
+2. 시각디자인, 산업디자인 사고의 전환: 2023년 12월 17일(일)
+실기고사 준비물, 실기주제, 화지 크기 및 시험 기간에 대한 자세한 정보는 해당 대학 공식 웹사이트나 입시 안내 책자를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 
+대기실 및 입실시간 안내
+2024. 01. 12.(금) 14:00 이후입학안내 홈페이지에서 조회</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9847140990724348</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동의대학교의 정시모집에서는 일부 전형에서 수능 성적 없이도 지원이 가능합니다. 해당 전형으로는 다음과 같습니다:
+1. 학생부종합(조기취업형계약학과전형) - 이 전형은 수능성적과 관계없이 서류평가와 면접을 통해 선발합니다. 이는 조기취업형 계약학과에 지원하는 학생들을 위한 것으로, 산업체와의 협약에 따라 교육과정이 운영되며 졸업 후 해당 산업체에 취업이 보장됩니다.
+2. 학생부종합(재직자전형) - 이 전형은 재직 중인 근로자를 대상으로 하며 수능성적 없이 서류평가와 면접을 통해 선발합니다. 지원자는 고등학교 졸업자격증 또는 동등 이상의 학력을 소지하고 있어야 합니다.
+3. 실기/실기고사(미술대학, 음악대학, 체육교육과) - 이 전형은 해당 전공에 맞는 실기나 실기고사를 통해 선발하며 수능성적과 무관하게 지원 가능합니다.
+4. 농어촌학생전형, 특성화고동일계전공특별전형, 특수교육대상자전형, 사회배려대상자전형 등 일부 특별전형도 수능성적 없이 서류평가와 면접을 통해 선발합니다.
+지원하고자 하는 전형에 대한 구체적인 자격요건과 지원 방법을 확인하기 위해서는 동의대학교 입학 홈페이지를 참조하거나 해당 대학에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9850209930867377</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 소프트웨어융합학과는 동의대학교의 정시모집에서 지원할 수 있습니다. 그러나 합격 가능 여부를 결정짓는 것은 단순히 성적이 아니라 다양한 요소들이 고려됩니다. 소프트웨어융합학과에 입학하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 모집단위별 정원외 모집인원이 있는 경우, 해당 인원에 따라 경쟁률이 달라집니다.
+2. 전형요소 반영비율은 서류(60%)와 면접(40%)으로 이루어지므로, 서류 평가에서 좋은 성적을 받아야 유리합니다.
+3. 소프트웨어융합학과는 정시 나군에 속해있으며, 모집단위별 합격 기준 점수는 매년 달라질 수 있습니다.
+평균 등급을 말씀드리기는 어렵지만, 일반적으로 경쟁률이 높은 학과일수록 합격 기준 성적이 더 높습니다. 소프트웨어융합학과와 같은 인기 있는 학과의 경우, 상위권 대학에서 해당 학과에 지원하는 학생들의 평균 등급이 보통 2등급 이내입니다. 하지만 이는 대략적인 수치이며, 실제 합격 가능 여부는 경쟁률, 전형 요소별 반영 비율, 그리고 본인의 서류 평가 점수에 따라 달라질 수 있습니다.
+정확한 정보를 얻기 위해서는 동의대학교 입학관리팀이나 공식 웹사이트를 참조하는 것이 좋습니다. 또한, 소프트웨어융합학과에 지원하기 전에 본인의 학업 성적과 관심사를 고려하여 본인의 가능성을 평가하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9857558440135248</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 레저스포츠학과 여학생의 제자리 멀리뛰기에서 4등급을 받으려면, 최소 256cm 이상의 점프 거리를 달성해야 합니다. 이 경우에 대한 배점은 200점입니다.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9859694558676313</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 가군 실기고사는 아직 구체적인 일정이 발표되지 않았습니다. 정확한 정보를 얻으시려면 공식 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 방문하거나 해당 기관에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9862487427468337</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부교과(농어촌학생전형) - 정원외에 지원하는 경우, 다음의 서류를 제출하셔야 합니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부, 모의 주민등록초본 각 1부(총 3부)
+3. 중학교 학교생활기록부 1부 (교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급)
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자의 경우에만 해당)
+5. 지원자 본인, 부 또는 모의 기본증명서(사망한 경우 사망이 명시된 경우 추가로 제출)
+6. 부모가 이혼한 경우 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출 (해당되는 경우에만)
+7. 최종등록자 중 고교 졸업예정자의 경우, 졸업 후 지원자격 증빙서류 추가 제출 (2024년 2월 16일까지)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다:
+### 6년 과정
+- **지원자 본인의 가족관계증명서 1부**
+- **지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)**
+- **중학교 학교생활기록부 1부**
+  - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+- **고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)**
+  - 부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+  - 부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+### 12년 과정
+- **지원자 본인의 주민등록초본 1부**
+- **초등학교 학교생활기록부 1부**
+- **중학교 학교생활기록부 1부**
+- **고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)**
+  - 중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+  - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+### 추가 정보
+- **제출기간**: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- **제출장소**: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- **주의사항**: 제출서류 미제출자는 불합격 처리됩니다. 주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다. 상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9870032028378589</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>동의대 소프트웨어공학부 정시 성적 산출 했을때 4.08인데 최초합 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 소프트웨어공학과 정시 모집 성적을 계산하기 위해서는 먼저 해당 학과에서 사용하는 정성평가(교과성적)와 정량평가(수능성적)의 반영 비율을 알아야 합니다. 또한, 수능 영역별 가중치도 고려해야 합니다.
+동의대 2023학년도 정시 모집 요강에 따르면 소프트웨어공학과는 교과성적과 수능성적을 모두 반영합니다. 교과성적은 내신 성적으로 계산되며, 수능 성적은 국어, 수학(가/나), 영어, 과탐(1+2) 영역의 백분위 점수를 사용합니다.
+교과성적은 30%, 수능성적은 70%를 반영합니다. 교과성적은 내신 성적을 기준으로 계산되며, 수능 성적은 각 과목별 가중치를 적용하여 백분위 점수로 환산한 후 합산합니다.
+당신의 경우, 교과성적이 4.08이라고 하셨으니, 이는 동의대 소프트웨어공학과에서 사용하는 9등급제 내신 성적을 기준으로 했을 때 대략 2등급 정도에 해당됩니다(정확한 등급은 학년별 과목 구성과 난이도에 따라 달라질 수 있습니다).
+수능 성적의 경우, 국어, 수학(가/나), 영어, 과탐(1+2) 영역 백분위 점수를 알아야 합니다. 이 점수에 각 과목별 가중치를 적용하여 총점을 계산한 후 교과성적 30%를 더해 최종 정시 모집 성적을 구할 수 있습니다.
+최초합 가능성을 정확히 판단하기 위해서는 동의대 소프트웨어공학과에 지원하는 다른 학생들의 성적과 경쟁 상황을 고려하는 것이 중요합니다. 또한, 합격 가능성은 매년 변동될 수 있으므로 최신 입시 동향을 지속적으로 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Context에 따르면, 동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9870651637142986</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동의대학교의 추가 모집에 지원하실 수 있습니다. 하지만 추가 모집은 일반적으로 경쟁률이 높고 정시 합격선에 미달하는 학생들이 주로 지원하는 경우가 많습니다. 추가 모집에서 입학하기 위해서는 본인의 성적이 해당 학과와 전형에 따라 달라질 수 있는 추가 합격선을 충족해야 합니다.
+추가 모집의 구체적인 일정, 지원 방법 및 자격 요건은 동의대학교 입학 관리처나 공식 웹사이트를 확인하여 최신 정보를 확인하는 것이 중요합니다. 또한, 추가 모집에서 경쟁력을 높이기 위해 본인의 학업 성적과 비교과 활동을 강화하는 데에도 집중하는 것을 고려해 보세요.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9877254924270025</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변:  2024학년도 동의대학교 정시모집(가군)에서는 수능 성적을 다음과 같이 반영합니다:
+1. 국어, 수학, 영어, 한국사, 제2외국어/한문 과목의 표준점수를 활용하여 백분위 점수로 변환합니다.
+2. 각 영역별 백분위 점수에 가중치를 적용하여 총점을 계산합니다.
+3. 모집단위에 따라 수능 성적과 학생부 교과 성적을 합산하여 최종 합격 여부를 결정합니다.
+4. 일부 모집단위는 면접이나 실기고사를 실시할 수도 있습니다.
+자세한 사항은 동의대학교 입학안내 홈페이지에서 정시모집 요강을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9879118399668956</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 인공지능학과 정시 일반학생전형에 지원하기 위해서는 2024학년도 모집요강을 참고해야 합니다. 하지만, 현재 제공된 정보로는 구체적인 합격 가능성이나 필요한 성적을 판단할 수 없습니다. 또한, 대학들은 매년 입학 요건을 변경할 수 있으므로 최신 정보를 확인하는 것이 중요합니다.
+동의대학교 인공지능학과에 지원하기 위해서는 다음과 같은 단계를 따라야 합니다:
+1. 동의대학교 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 정시 모집요강을 확인하세요.
+2. 수능 성적과 학생부 성적을 포함한 자격 요건을 검토하세요.
+3. 본인의 수능 점수와 학생부 성적이 해당 전형에 필요한 최소 기준을 충족하는지 평가하세요.
+4. 동의대학교 인공지능학과에 지원하기 위해 필요한 서류와 마감일을 준비하세요.
+5. 원서 접수 기간 내에 온라인 또는 오프라인으로 원서를 제출하세요.
+6. 합격자 발표 및 등록 절차에 대한 정보를 꼼꼼히 확인하세요.
+동의대학교 인공지능학과 정시 일반학생전형에 지원할 때 본인의 수능 성적과 학생부 성적을 면밀히 분석하는 것이 중요합니다. 또한, 경쟁률, 전년도 합격 선행 사례, 그리고 대학이 제시하는 기타 요소들도 고려하여 지원 가능성을 평가해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9880187155972259</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 물론이죠, 동의대학교의 정시 모집 일정에 대한 개요를 알려드리겠습니다:
+1. 원서접수 기간: 2023년 12월 29일(목)부터 2024년 1월 2일(화)까지입니다.
+2. 전형료 납부 기한: 원서 접수를 완료한 후, 수험번호가 부여되며, 이후 전형료를 납부해야 합니다. 납부 기한은 2023년 12월 29일(목)부터 2024년 1월 2일(화)까지입니다.
+3. 서류제출 대상자: 서류 제출이 필요한 지원자는 원서 접수 후 지정된 기간 내에 관련 서류를 우편으로 제출해야 합니다.
+4. 합격자 발표: 최초합격자 발표는 2024년 1월 18일(수)에 이루어지며, 이후 충원합격자 발표가 있을 예정입니다.
+5. 등록금 납부 기한: 합격자는 지정된 기간 내에 등록금을 납부해야 하며, 미납시 입학이 취소됩니다.
+6. 추가모집 일정: 정시 모집에서 결원이 발생하면 추가적으로 모집을 실시할 수 있으며, 해당 일정은 추후 공지될 예정입니다.
+7. 기타 유의사항: 지원자는 수시모집 등록자의 등록 포기로 인한 결원 인원에 따라 충원합격자 발표가 있을 수 있음을 유념해야 합니다. 또한, 합격 후 등록을 하지 않을 경우 입학포기로 간주됩니다.
+이 정보는 2023년 기준이며 추후 변경될 수 있으니, 최신 정보를 위해서는 동의대학교 입학관리처 공식 웹사이트를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. **실기고사 일정**:
+   - **&lt;가&gt;군 실기고사**: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - **&lt;나&gt;군 실기고사**: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - **최초 합격자 등록**: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - **충원 합격자 발표 및 등록**:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9883591926900019</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 가군에서 물리치료학과는 정원 내 모집으로 총 35명을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9888292758272347</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 물론이죠, 도와드리겠습니다! 제공해주신 표 내용에 따르면, 수능 영어 영역의 등급별 점수는 다음과 같습니다:
+1등급 - 139점
+2등급 - 131점
+3등급 - 123점
+4등급 - 115점
+5등급 - 107점
+6등급 - 99점
+7등급 - 91점
+8등급 - 83점
+9등급 - 75점</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9890936904961978</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요??</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 정시모집에서는 저소득 기회균등 전형을 통해 학생들을 선발합니다. 하지만 이는 대학마다 다를 수 있으니 구체적인 정보는 해당 대학의 입학 홈페이지를 참조하거나 담당자에게 문의하는 것이 좋습니다. 일반적으로 저소득 기회균등 전형은 경제적 어려움을 겪고 있는 학생들에게 교육 기회를 제공하기 위해 마련되었으며, 정시모집에서 일부 모집단위에 대해 별도의 전형을 운영할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9893645172567</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 DeuCIS(Deucalion Intelligent System) 대학에서 성인 학습자를 대상으로 하는 특별 전형입니다. 이 전형은 다양한 배경과 경험을 가진 개인들이 고등교육을 추구하고 자신의 전문적 및 개인적 목표를 달성할 수 있는 기회를 제공합니다.
+평생학습자전형에 지원하기 위해서는 다음의 요건을 충족해야 합니다:
+1. 만 25세 이상이어야 하며, 고등학교 졸업(또는 동등한 자격) 이상의 학력을 소지하고 있어야 합니다.
+2. 최소 3년 이상의 직장 경험이 있거나 관련 분야의 전문적 성취를 입증할 수 있는 증거가 있어야 합니다.
+3. 지원하고자 하는 전공과 관련된 분야에서 일정 수준의 학문적 준비성과 잠재력을 보여야 합니다.
+4. 입학 시험이나 면접을 포함하여 전형 절차에 참여해야 합니다.
+평생학습자전형은 학업 능력, 전공 적합성 및 개인적 성장 잠재력에 중점을 둔 포괄적인 평가를 실시합니다. 지원자는 자신의 경험과 지식을 바탕으로 한 문제 해결 능력, 전공에 대한 관심과 이해도, 그리고 학문적 성공을 위한 동기를 입증해야 합니다. 전형 과정에는 입학 시험, 면접, 서류 평가가 포함될 수 있으며, 이는 지원자의 준비성과 잠재력을 평가하는 데 도움이 됩니다.
+평생학습자전형은 다양한 배경을 가진 개인들이 고등교육을 추구하고 자신의 전문적 및 개인적 목표를 달성할 수 있는 기회를 제공함으로써 평생 학습의 중요성을 강조합니다. 이 전형은 전통적인 학업 경로를 따르지 않았거나 다른 방식으로 교육을 추구하고자 하는 이들에게 훌륭한 선택입니다.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다:
+### 모집단위 및 모집인원
+- **미래융합대학 라이프융합학부 (신설)**
+  - **전형명:** 학생부종합(평생학습자전형)
+  - **모집인원:** 11명
+### 지원자격
+- **평생학습자전형:** 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+### 제출서류
+- **고교 졸업(예정)자:**
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- **검정고시출신자:**
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+- **외국고교 졸업(예정)자:**
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+### 제출기간 및 장소
+- **제출기간:** 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- **제출장소:** (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+### 추가사항
+- 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9895190061036481</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 정시전형 원서접수 마감일은 2023년 1월 6일(토) 오후 6시입니다. 지원자는 사전에 원서접수를 완료하고 전형료를 납부해야 하며, 마감시간까지 접수가 완료되지 않으면 불이익을 받을 수 있으니 유의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9895310393463256</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동국대학교는 정원외 모집과 추가모집을 실시합니다. 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가와 다군 수능(일반학생전형)은 추가모집에 해당됩니다. 자세한 사항은 ipsi.deu.ac.kr/main.do에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9899661663163938</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 입학처의 정확한 연락처 정보는 제공된 맥락에서 명시적으로 언급되어 있지 않습니다. 그러나, 더 많은 정보를 원하시면 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 방문하시거나 해당 웹사이트에 있는 연락처 정보로 직접 문의하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9903410980242509</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 가지 종목으로 구성됩니다. 각 종목은 다음과 같은 내용을 포함합니다:
-1. **시각디자인**: 
-   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
-   - **실기주제**: 주제A, 주제B 중 1개를 선택하여 연결된 주제를 당일 추첨합니다. 예를 들어, 주제A가 잠자리이고 주제B가 저울이라면, 이 두 주제를 활용하여 작품을 만듭니다.
-   - **화지크기**: 켄트지3절
-   - **시험기간**: 5시간
-2. **산업디자인**:
-   - **준비물**: 시각디자인과 동일
-   - **실기주제**: 주제A, 주제B 중 1개를 선택하여 연결된 주제를 당일 추첨합니다. 예를 들어, 주제A가 콜라병이고 주제B가 계절이라면, 이 두 주제를 활용하여 작품을 만듭니다.
-   - **화지크기**: 켄트지2절
-   - **시험기간**: 5시간
-3. **공예디자인**:
-   - **준비물**: 시각디자인과 동일
-   - **실기주제**: 주제A, 주제B 중 1개를 선택하여 연결된 주제를 당일 추첨합니다. 주제에 따라 다양한 소재를 활용하여 작품을 만듭니다.
-   - **화지크기**: 시험당일 안내
-   - **시험기간**: 시험당일 안내
-이러한 실기시험을 통해 학생들은 자신의 디자인 능력과 창의성을 발휘하며, 평가를 받습니다.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과 실기시험은 시각디자인, 산업디자인, 공예디자인 중 하나를 선택할 수 있는 3가지 과목으로 구성되어 있습니다. 각 과목을 위한 준비물, 주제, 화지 크기 및 시험 기간이 다르며, 다음과 같습니다:
+1. 기초디자인: 볼펜, 연필, 색연필, 수채화 물감 등 표현에 필요한 도구와 함께 제공된 사물과 이미지를 사용하여 주제를 연결하는 과제를 수행합니다. 켄트지 3절에서 5시간 동안 실시됩니다.
+2. 사고의 전환: 볼펜, 연필, 색연필, 수채화 물감을 사용하여 주어진 주제들을 창의적으로 결합하는 과제입니다. 켄트지 2절에서 5시간 동안 실시됩니다.
+시각디자인, 산업디자인, 공예디자인 실기시험은 각각 다른 준비물과 주제를 가지고 있으며, 모두 켄트지 3절에서 5시간 동안 실시됩니다. 구체적인 내용은 다음과 같습니다:
+1. 시각디자인: 주어진 주제들을 창의적으로 결합하는 과제를 수행합니다. 볼펜, 연필, 색연필, 수채화 물감을 사용합니다.
+2. 산업디자인: 주어진 주제들을 창의적으로 결합하는 과제를 수행합니다. 볼펜, 연필, 색연필, 수채화 물감을 사용합니다.
+3. 공예디자인: 주어진 주제들을 창의적으로 결합하는 과제를 수행합니다. 볼펜, 연필, 색연필, 수채화 물감을 사용합니다.
+시험 당일에는 운동복과 운동화를 착용해야 하며, 스파이크나 축구화와 같은 특수 신발은 허용되지 않습니다. 메디신볼 규격은 남성의 경우 3kg, 여성의 경우 2kg입니다. 부상이나 기타 사유로 인해 실기시험에 참여하지 못하는 지원자는 해당 과목을 최저점으로 받게 됩니다. 각 과목에서 2회 이상 반칙을 한 경우에도 최저점을 부여받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
 ### 모집단위 및 실기종목
@@ -511,21 +2286,1590 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9903665213729123</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형 지원 자격은 다음과 같습니다: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자입니다.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9904821649131401</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 잇을까요?</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 정보만으로는 귀하의 구체적인 상황에 대해 정확한 답변을 드리기 어렵습니다. 그러나 일반적으로 정시 등급과 모집단위별 경쟁률에 따라 달라집니다. 현재 정시 등급이 4.4라면, 일부 대학에서는 방사선학과 같은 인기 있는 모집단위에 합격하기 어려울 수 있습니다.
+정확한 가능성을 파악하려면 다음 단계를 고려해 보세요:
+1. 해당 대학의 입시 요강과 전형별 합격선을 확인하세요. 이는 일반적으로 대학의 입학처나 홈페이지에서 찾을 수 있습니다.
+2. 경쟁률을 이해하세요. 인기 있는 모집단위일수록 경쟁률이 더 치열할 수 있으며, 이는 합격 가능성을 낮출 수 있습니다.
+3. 본인의 내신 성적을 분석하세요. 일부 대학은 특정 과목의 성적이 우수하거나 관련 과목을 이수한 학생들을 선호할 수 있습니다.
+4. 비교과 활동을 고려하세요. 방사선학과 같은 경쟁이 심한 모집단위에서는 동아리, 봉사활동, 수상 경력 등 다양한 비교과 활동이 입학 가능성을 높일 수 있습니다.
+5. 상담 선생님이나 입시 전문가와 상의하여 본인의 상황에 대한 맞춤형 조언을 받으세요. 그들은 귀하의 강점과 약점을 파악하고 지원 전략을 세우는 데 도움을 줄 수 있습니다.
+결국 합격 가능성은 여러 요소에 달려 있으며, 정시 등급만으로 결정되는 것은 아닙니다. 경쟁률과 대학별 입시 요강에 따라 달라질 수 있으므로, 본인의 상황에 대해 철저히 조사하고 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9907991402784093</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형)의 면접 절차는 다음과 같습니다:
+1. 대기실 입실: 수험생은 지정된 대기실에 들어가서 차례를 기다립니다.
+2. 신분 확인: 입학사정관이 수험생의 신분을 확인합니다.
+3. 고사장 이동: 입학사정관의 안내에 따라 고사장으로 이동합니다.
+4. 고사장 입장: 개별 면접을 위해 지정된 고사장에 들어갑니다.
+5. 자기소개 및 학업 계획 발표: 입학사정관 앞에서 지원 동기 및 학업 계획을 1분 이내로 발표합니다.
+6. 학업 역량, 전공 적합성 관련 공통 문항 발표 및 질의응답: 입학사정관이 제시한 공통 문항에 대해 답변하고, 학업 역량과 전공 적합성에 대한 추가 질문에 답합니다.
+7. 기타 질문(제출 서류 진위 여부 등): 제출된 서류를 바탕으로 한 추가적인 질문이 있을 수 있습니다.
+8. 퇴실: 면접이 끝나면 고사장을 떠납니다.
+면접은 개별적으로 진행되며, 입학사정관 두 명이 평가위원으로 참여합니다. 블라인드 면접 방식으로 개인의 신상 정보는 노출되지 않으며 교복 착용도 금지됩니다.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9908321024590361</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적이 2.58인데 정시 전형 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 정보만으로는 정시 전형에서 간호학과에 합격할 수 있는지 여부를 판단하기 어렵습니다. 정시 전형 합격 여부는 다양한 요소들, 예를 들어 모집단위별 경쟁률, 지원자 수, 대학별 합격 기준 점수 등 여러 요소에 따라 달라집니다. 또한, 일부 대학은 학생부 교과 성적과 같은 다른 요소들도 고려합니다.
+정확한 정보를 얻기 위해서는 해당 대학의 정시 전형 합격 기준에 대한 최신 자료를 참조하거나 대학에 직접 문의하는 것이 좋습니다. 또한, 본인의 지원 가능성을 향상시키기 위해 학업 성적을 유지하고 관련 경험을 쌓는 등 지속적인 노력을 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9908625490178774</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 수시 충원합격자에게는 합격 여부를 확인하기 위해 개별적으로 연락을 드립니다. 하지만, 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 지정된 기간 내에 우리대학 입학안내 홈페이지에서 합격자 조회 후 등록금을 납부해야 한다는 점을 유의해 주세요. 지정된 기한 내에 등록금을 납부하지 않으면, 우리대학 입학을 포기하는 것으로 간주됩니다. 또한, 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발한다는 점도 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.99119441634262</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 맥락에 따르면, 2024학년도 나군 수능(일반학생전형)에서 교직 과정이 개설되어 있는 학과들은 제외됩니다. 이러한 모집단위들은 중등학교 정교사 2급 자격 취득을 위한 과정으로, 교육부의 승인 결과에 따라 교직과정 개설 여부가 변경될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 디자인조형학과와 체육학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9912554868917126</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 정시 모집요강에 따르면, 일부 변경된 전형 요소가 있습니다. 주요 사항들은 다음과 같습니다:
+1. 학생부종합(조기취업형계약학과전형) - 정원외 서류평가 영역의 부정적 사례 추가 및 면접 평가 방법 세부사항 업데이트.
+2. 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 영역별 세부 평가 기준 및 내용 변경.
+3. 지원자 유의사항에 전형료 결제, 합격자 발표, 등록금 납부에 대한 추가 지침이 제공되었습니다.
+4. 기타 유의사항에는 입학전형에서의 부정행위 사례와 입학관리위원회가 결정할 사항에 관한 내용이 포함되어 있습니다.
+5. 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법에 대한 자세한 설명이 업데이트되었습니다.
+이 변경 사항들은 2024학년도 전형 요강에 명시된 대로, 지원자는 반드시 모집요강을 주의 깊게 읽고 최신 정보를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형)**:
+   - 2023학년도: 서류(학생부) 70% + 면접 30%
+   - 2024학년도: 서류(학생부) 60% + 면접 40%
+2. **실기/실적(경기실적우수자전형)**:
+   - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+   - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+이 외에도 학생부 교과성적 반영방법과 진로선택과목 성적반영 방식에도 변화가 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9915325560424919</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 표에 따르면, 2024학년도 동의대학교 나군 전형에서 가장 많은 인원을 모집하는 학과는 간호학과입니다.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9918400391660246</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적이 3.7인데 정시 전형 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 정보만으로는 정시 전형에서 간호학과에 합격할 가능성을 판단하기 어렵습니다. 정시 합격 여부는 다양한 요소들, 예를 들어 해당 학과의 경쟁률, 모집단위별 정원, 지원자 풀의 평균 성적 등 여러 요소에 따라 달라집니다. 또한, 일부 대학은 수능 성적을 포함한 다른 요소들을 종합적으로 평가하는 전형을 실시하기도 합니다.
+간호학과에 대한 구체적인 합격 가능성을 파악하기 위해서는 해당 대학의 홈페이지에서 제공하는 정시 모집요강을 참조하거나 입학 사무실에 직접 문의하는 것이 좋습니다. 그들은 지원자 풀의 평균 성적, 경쟁률 및 기타 관련 정보를 제공할 수 있습니다. 또한, 본인의 학업 성적과 비교해보고, 대학이 제시하는 전형 요건을 충족하는지 확인하는 것도 도움이 될 것입니다.
+간호학과에 합격 가능성을 높이기 위해서는 다음과 같은 요소들을 고려해보세요:
+1. 해당 대학의 정시 모집요강을 철저히 이해하고, 필요한 최소 수능 점수나 등급을 확인하세요.
+2. 본인의 학업 성적과 비교해보고, 경쟁력을 평가하세요.
+3. 대학이 제시하는 전형 요건을 충족하는지 확인하세요(예: 자기소개서, 면접 등).
+4. 본인의 강점과 경험을 강조하는 잘 작성된 자기소개서를 준비하세요.
+5. 대학의 입학 상담 프로그램이나 설명회에 참석하여 더 많은 정보를 수집하고 질문을 하세요.
+6. 지원 전략에 대해 신뢰할 수 있는 선생님이나 상담자와 상의하세요.
+7. 지원하는 대학들의 합격 가능성을 향상시키기 위해 학업 성적과 관련 활동을 꾸준히 관리하세요.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9918599327166693</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 가능성 있을까요..?</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 정시전형에서 영화학과 합격 가능성을 판단하기 위해서는 여러 가지 요소를 고려해야 합니다. 주요 요소로는 해당 학과의 경쟁률, 전형 요건, 그리고 대학별 모집단위별 합격 기준 등이 있습니다. 또한, 본인의 수능 성적과 비교해 볼 때, 다른 지원자들과의 상대적 위치도 중요합니다.
+정시전형에서 영화학과는 일반적으로 높은 경쟁률을 보입니다. 따라서 정시 성적이 4.2 정도라면 경쟁이 치열한 상황일 수 있습니다. 합격 가능성을 정확히 예측하기 위해서는 해당 학과의 과거 합격 선행 데이터와 올해의 모집 요강을 확인하는 것이 도움이 될 것입니다.
+또한, 대학별 모집단위마다 다른 전형 요소들이 있을 수 있으니, 본인의 지원 전략에 영향을 줄 수 있는 추가 요소들을 고려하는 것이 중요합니다. 예를 들어, 일부 대학은 학생부 교과성적이나 비교과 활동을 반영하기도 합니다.
+결론적으로, 정시 성적이 4.2 정도라면 영화학과 합격 가능성이 있지만 경쟁이 치열할 것으로 예상됩니다. 본인의 지원 전략을 세우기 전에 해당 학과의 과거 합격 선행 데이터와 올해의 모집 요강을 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+정시 성적이 4.2정도라면, 영화학과의 최종등록자 평균 성적과 비교했을 때 경쟁력이 있을 가능성이 있습니다. 다만, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있으므로, 정확한 판단을 위해서는 추가적인 정보가 필요할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9919199447157271</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>게임공학과 정시 성적이 4.16정도인데 정시로 넣으면 추합몇정도 될까요??</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AI 언어 모델로서 저는 실시간으로 정확한 정보를 제공할 수 없으며, 입학 기준과 경쟁률은 매년 변동될 수 있습니다. 그러나 일반적으로 게임공학이나 관련 분야의 학과에 지원할 때 4.16의 정시 성적을 가진 학생의 합격 가능성을 추정하기 위해 다음과 같은 단계를 따를 수 있습니다:
+1. 해당 대학의 과거 합격 성적 분석: 최근 몇 년 동안 입학한 학생들의 평균 정시 성적을 찾아보세요. 이 정보는 보통 대학 공식 웹사이트에서 찾을 수 있으며, 이는 경쟁 수준을 이해하는 데 도움이 될 것입니다.
+2. 지원하고자 하는 특정 학과 고려: 게임공학과 같은 일부 프로그램은 다른 전공보다 더 경쟁적일 수 있습니다. 해당 대학의 입학 사무실에 연락하여 해당 학과의 평균 합격 성적이나 경쟁률에 대해 문의하는 것이 좋습니다.
+3. 비교 가능한 대학들 조사: 관심 있는 분야의 다양한 대학에 대한 정보를 수집하세요. 이는 여러분의 가능성을 평가하고 지원 전략을 세우는 데 도움이 될 것입니다.
+4. 추가 요소 고려: 정시 성적이 중요한 역할을 하지만, 일부 대학은 학업 성적 외에도 에세이, 추천서, 과외 활동과 같은 다른 요소를 고려할 수 있습니다. 이러한 요소들이 입학 결정에 어떻게 영향을 미치는지 알아보세요.
+5. 지원 전략 수립: 경쟁력을 높이기 위해 여러분의 강점을 보여주는 강력한 개인 진술서를 작성하고, 관련 경험을 강조하며, 대학이 제공하는 장학금이나 특별 프로그램과 같은 추가 기회를 조사하세요.
+6. 조기 결정 또는 조기 조치 고려: 일부 대학은 정시 지원 마감일 이전에 입학 결정을 내리기 위해 조기 결정 또는 조기 조치를 제공합니다. 이러한 옵션을 사용하면 경쟁이 덜 치열할 수 있으며, 합격 가능성을 높일 수 있습니다.
+7. 상담가와 상담: 고등학교 상담가나 대학 상담가는 여러분의 상황에 기반한 개인 맞춤형 조언을 제공할 수 있습니다. 그들은 지원 전략을 세우는 데 도움을 주고, 추가 지원을 위해 재정 보조 자원을 안내해 줄 수 있습니다.
+결론적으로, 4.16의 정시 성적을 가진 학생의 추합 가능성을 정확히 예측하기는 어렵습니다. 그러나 이러한 단계를 따르면 여러분의 강점과 약점을 파악하고 경쟁력을 향상시킬 수 있는 전략을 세울 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 
+따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9920709059860479</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 동의대학교는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과에 수능 가산점을 적용합니다.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9925211320736652</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 맥락에서 방사선학과 정시에 대한 구체적인 정보는 없습니다. 그러나 일반적으로, 방사선학 분야는 의료 영상 진단 및 치료를 위해 방사선을 사용하는 것을 포함합니다. 방사선과 관련하여 안전 기준을 준수하는 것이 매우 중요합니다. 방사선에 노출되는 것은 적절한 보호 조치가 취해지지 않으면 위험할 수 있습니다.
+방사선학과 정시에 대한 구체적인 정보를 얻으려면, 공식 입학 안내 책자나 대학 웹사이트를 참조하거나 해당 기관의 입학 사무실에 문의하십시오. 그들은 지원 과정과 요구 사항에 대해 더 자세한 정보를 제공할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4라면 방사선학과에 합격하기 어려울 수 있습니다. 방사선학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.992626600248623</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 특수목적고등학교(특목고) 학생도 동의대학교 정시모집 일반학생전형에 지원 가능합니다. 다만, 해당 전형은 수능 성적을 기반으로 하므로, 본인의 수능 성적과 모집단위별 합격선을 고려하여 지원해야 합니다. 또한, 특목고의 경우 일부 대학에서는 특정 교과목을 이수한 학생들을 위한 별도의 전형을 운영할 수도 있으니, 구체적인 정보는 동의대학교 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9926646168128226</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있늘까요??</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동의대학교 정시 모집에서 신소재공학과에 합격할 가능성이 있습니다. 하지만 최종 결정은 경쟁률, 전년도 합격자 성적, 그리고 입학 사정 과정에서 고려되는 기타 요소들에 따라 달라질 수 있음을 유의해야 합니다.
+입학 가능성을 높이기 위해서는 다음과 같은 단계를 고려해 보세요:
+1. 동의대학교의 정시 모집 요강과 지원 자격요건을 확인하세요.
+2. 전년도 합격자들의 평균 성적, 경쟁률 및 입학 사정 과정에서 사용되는 기타 요소들을 분석하여 본인의 입학을 위한 경쟁력을 평가해보세요.
+3. 자기소개서(자소서)와 면접 준비에 시간을 투자하세요. 이는 입학 가능성을 크게 향상시킬 수 있습니다.
+4. 동의대학교의 신소재공학과 프로그램과 요구사항에 대해 조사하고, 본인의 강점과 관심사를 강조하는 지원서를 작성하세요.
+5. 최종 결정을 받기 전까지 합격 가능성을 예측하기 어렵다는 점을 기억하세요. 입학 사정 과정은 경쟁적일 수 있으며, 다양한 요소들이 고려됩니다.
+지원 과정에서 행운을 빕니다!</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9926713295511627</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초합 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교의 정시 모집은 학과별로 다양한 전형 요소가 적용되며, 특히 바이오응용공학과는 학생부종합(조기취업형계약학과전형)을 통해 선발합니다. 이 전형의 경우, 서류 평가와 면접 평가를 기반으로 합니다.
+동의대식 정시 성적이 3.33이라면, 해당 점수는 학생의 학업 역량과 전공 적합성을 평가하는 데 중요한 요소로 고려될 것입니다. 그러나 최종 합격 여부는 지원자의 자기소개서, 학교생활기록부 내용, 면접 성적 등 다양한 요소를 종합적으로 평가하여 결정됩니다.
+바이오응용공학과에 최초합을 확보하기 위해서는 높은 정시 성적을 유지하는 것이 중요하지만, 학업 역량과 전공 적합성을 보여주는 비교과 활동 및 자기소개서도 잘 준비해야 합니다. 또한, 서류 평가를 통과한 후 면접에서 좋은 성과를 거두는 것도 합격 가능성을 높이는 데 도움이 될 것입니다.
+바이오응용공학과에 지원하기 전에 동의대학교 입학처나 해당 학과의 담당자에게 구체적인 전형 요건과 경쟁률에 대해 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최종등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 4.53이고, 수능 4개 영역 등급 평균은 5.41입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.992728828936148</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 5.33으로 일반학생전형 경영정보학과 합격 가능할까요?ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 정시 일반학생전형에서 경영정보학과에 합격할 가능성을 정확히 판단하기 어렵습니다. 합격 여부는 경쟁률, 전년도 합격 선행 사례, 모집단위별 배정 점수 등 다양한 요소에 따라 달라질 수 있습니다. 또한, 성적은 지원자의 전체 입학을 위한 요소 중 하나일 뿐이며, 대학은 학생부 교과성적, 비교과 활동, 면접이나 논술고사 같은 다른 요소들도 고려합니다.
+하지만 일반적으로 동의대학교 경영정보학과는 경쟁률이 높은 인기 있는 모집단위입니다. 따라서 정시 성적만으로 합격 가능성을 판단하기보다는 전년도 합격 선행 사례와 현재 경쟁률을 확인하는 것이 좋습니다. 또한, 본인의 학생부 교과성적과 비교과 활동을 면밀히 검토하고, 대학이 제시하는 기타 요구사항이나 선호사항을 충족하는지 확인해야 합니다.
+추가로 궁금한 사항이 있거나 구체적인 조언을 구하고 싶다면, 동의대학교 입학관리처에 직접 문의하거나 대학의 공식 웹사이트를 방문하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 
+따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9927475727823885</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요..!</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교의 화학환경공학부에 대한 구체적인 합격 기준이나 경쟁률에 대한 정보는 제공된 맥락에서 찾을 수 없습니다. 그러나 일반적으로 대학들은 다양한 요소들을 고려하여 합격 여부를 결정하는데, 이는 정시 성적뿐만 아니라 학생부 내신 성적을 포함한 전형적인 종합 평가를 포함할 수 있습니다.
+동의대학교의 화학환경공학부에 지원하기 위해서는 해당 학과와 관련된 교과목에 강한 배경을 가지고 있고, 관련 과목에서 좋은 성적을 유지하는 것이 중요합니다. 또한 대학은 자기소개서나 면접 같은 비교과 요소도 평가할 수 있으므로 이러한 부분에 대해서도 준비해야 합니다.
+정확한 정보를 얻기 위해서는 동의대학교 입학처 공식 웹사이트를 방문하거나 직접 연락하여 화학환경공학부의 구체적인 합격 기준과 경쟁률에 대해 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9930678810510882</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초합으로 가능할까용?</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경영정보학과의 합격 가능성을 정확히 예측하기는 여러 가지 변수(예: 경쟁률, 전년도 합격자 성적이력 등)를 알아야 하기 때문에 어렵습니다. 하지만 일반적으로 정시 모집에서 경영정보학과는 높은 경쟁률을 가지고 있으며, 최초합을 확보하기 위해서는 상당히 높은 수능 성적과 내신 성적이 필요합니다.
+경영정보학과의 경우, 최근 몇 년 동안 합격자 평균 수능 백분위수가 90대 후반에서 100점 가까이 되는 경우가 많습니다. 따라서 경영정보학과에 최초합을 확보하기 위해서는 수능 성적과 내신 성적이 매우 우수해야 합니다.
+최종 결정을 내리기 전에 해당 대학의 정시 모집 요강, 합격자 평균 성적, 경쟁률 등 관련 정보를 반드시 확인하시기 바랍니다. 또한, 본인의 지원 전략을 세우기 위해 상담 선생님이나 입시 전문가와 상의하는 것이 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9931971398820552</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>간호학과 - 동의대식 정시 성적 3.44인데 마지막으로 문 닫고 들어 올 가능성도 없나요??</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 정보만으로는 정확한 가능성을 판단하기 어렵습니다. 입학 경쟁률, 합격 기준, 그리고 특정 학과의 구체적인 모집 요강에 대한 추가 정보가 필요합니다. 그러나 일반적으로 간호학과는 경쟁률이 높은 인기 있는 전공입니다. 정시 성적(3.44)이 다소 낮을 수 있지만, 최종 결정은 여러 가지 요소를 고려하여 이루어집니다.
+간호학과 입학 가능성을 향상시키기 위해 다음과 같은 조치를 취할 수 있습니다:
+1. 모집 요강 검토: 해당 대학의 간호학과에 대한 구체적인 모집 요강과 합격 기준을 확인하세요. 이는 최소 학점 평균(GPA)이나 표준화된 시험 점수 요구사항, 그리고 기타 비학업적 요소들을 포함할 수 있습니다.
+2. 경쟁력 있는 지원서 준비: 강력한 개인 진술서를 작성하고 관련 경험을 강조하며, 추천서를 확보하는 등 경쟁력 있는 지원서를 준비하는 것이 중요합니다.
+3. 추가 자료 제출 고려: 일부 대학은 표준화된 시험 점수나 GPA를 보완하기 위해 포트폴리오, 에세이 또는 인터뷰와 같은 추가 자료를 요구할 수 있습니다. 이러한 자료가 있다면 제출을 고려해보세요.
+4. 조기 지원: 일부 대학에서는 조기에 지원하는 학생들에게 우선권을 줄 수 있으며, 이는 입학 가능성을 높일 수 있습니다.
+5. 다른 학교 탐색: 간호학과에 대한 경쟁이 치열하다면, 여러 학교에 지원하여 합격 가능성을 넓히는 것을 고려하세요.
+6. 상담가와 상담: 고등학교 상담가나 대학 상담자와 상의하여 지원 전략을 논의하고 추가 지원을 받으세요.
+7. 학업 성적 향상: 정시 성적이 다소 낮다면, 남은 기간 동안 학업에 집중하여 GPA를 향상시키려고 노력하세요. 이는 입학 가능성을 높일 수 있습니다.
+결국 간호학과 입학 가능성은 여러 요소에 따라 달라지며, 경쟁률과 모집 요강은 매년 달라질 수 있다는 점을 기억하세요. 지원 전략을 세울 때 이러한 요소들을 고려하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9933591087840133</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다 최초합 가능할까요??</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경영정보학과 정시 성적이 4.2라면, 합격 가능성을 정확히 판단하기 위해서는 해당 학과의 경쟁률과 입학생들의 평균 성적을 알아야 합니다. 또한, 대학별 모집 요강에 따라 수능 반영 비율이나 가산점 등 다양한 요소들이 결과에 영향을 미칠 수 있습니다.
+일반적으로 경영정보학과는 인기 있는 전공으로 경쟁률이 높은 편입니다. 따라서 정시 성적만으로 합격 가능성을 판단하기 어렵습니다. 하지만, 본인의 성적이 해당 학과의 평균 성적보다 높다면 최초합의 가능성이 있을 수 있습니다.
+최종 결정을 내리기 위해서는 대학별 모집 요강을 면밀히 확인하고, 입학생들의 평균 성적과 경쟁률을 비교해보는 것이 좋습니다. 또한, 본인의 자기소개서(자소서)나 면접 준비 상태도 합격 가능성을 결정하는 데 중요한 역할을 할 수 있으니 이 부분에도 주의를 기울이세요.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.993704210203322</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적 2.52 추가 합격으로도 합격 안되겠죠?</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 정보만으로는 특정 대학의 간호학과 정시 모집에서 추가 합격 가능성을 정확히 판단하기 어렵습니다. 추가 합격 여부는 경쟁률, 지원자 수, 전형 요소 등 다양한 요소에 따라 달라집니다. 그러나 일반적으로 높은 성적을 가진 학생들이 더 유리한 위치에 있습니다.
+추가 합격 가능성에 대해 확신을 가지려면 해당 대학의 입학 사무실에 직접 문의하거나 그들의 공식 웹사이트를 방문하여 추가 합격 관련 정보를 확인하는 것이 좋습니다. 또한, 대학이 제공하는 상담 서비스를 활용하여 지원 전략을 논의하고 추가적인 조언을 구하는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고, 표준 편차는 0.69입니다. 따라서, 2.52 등급은 평균보다 약간 낮은 수준입니다. 
+추가 합격 여부는 지원자의 전체 성적, 경쟁률, 다른 지원자들의 성적 등에 따라 달라질 수 있습니다. 하지만, 평균보다 약간 낮은 성적이므로 합격 가능성이 낮을 수 있습니다. 
+정확한 합격 여부는 학교의 입학처에 문의하는 것이 좋습니다. 추가 정보를 원하시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9937342067321419</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 고등학교를 졸업한 지 10년이 지난 경우에도 정시 지원에 가능합니다. 하지만, 대학별 입학 요건과 전형에 따라 다를 수 있으니 구체적인 정보를 확인하기 위해서는 해당 대학의 공식 웹사이트나 입학 사무실에 문의하는 것이 좋습니다. 또한, 일부 대학은 성인 학습자전형이나 재직자전형을 통해 고등학교 졸업 후 일정 기간이 경과한 지원자를 위한 별도의 전형을 운영할 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9939307275331555</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부 합격 가능할까요? 정시등급은 몇 인가여 신소재 학과는?</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 신소재공학부에 대한 구체적인 정보를 제공하기 위해서는 여러분의 정시 등급과 해당 학과의 입학생 평균 성적을 알아야 합니다. 하지만, 일반적으로 신소재공학과는 화학, 물리, 수학에 강한 배경을 가진 학생들을 선호합니다. 또한, 대학은 학생의 전반적인 학문적 성과와 잠재력뿐만 아니라 자기소개서, 면접 성적 등도 고려합니다.
+동의대학교의 정시 등급과 합격 가능성을 정확히 파악하기 위해서는 해당 학과의 입학생 평균 성적을 확인하거나 대학의 입학 사무실에 문의하는 것이 좋습니다. 또한, 본인의 강점과 약점을 평가하고, 지원 전략을 세우기 위해 대학 웹사이트를 방문하여 신소재공학과에 대한 자세한 정보를 확인하는 것을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9940551603023585</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 정시 성적이 4.28이라면 동의대학교 신소재공학부에 지원하실 수 있습니다. 다만, 구체적인 합격 가능성은 경쟁률과 모집단위별 정원 등 여러 요소에 따라 달라질 수 있음을 유의하셔야 합니다. 또한, 대학은 다양한 요소들을 종합적으로 평가하기 때문에, 단순히 정시 성적이 높다고 해서 반드시 합격하는 것은 아니며, 학생부 성적, 면접 결과, 그리고 기타 비교과 활동 등이 고려될 수 있습니다.
+동의대학교 신소재공학부에 지원하실 때는 해당 학과에 대한 관심과 열정을 보여주는 것이 중요합니다. 전공 관련 교과목에서 좋은 성적을 유지하고, 동아리 활동이나 연구 프로젝트 참여와 같은 관련 경험을 쌓으시는 것도 도움이 될 것입니다. 또한, 입학사정관 면접 시 본인의 강점과 포부를 효과적으로 전달하는 연습도 필요합니다.
+결론적으로 정시 성적이 4.28이라면 동의대학교 신소재공학부에 지원하실 수 있지만, 합격 가능성을 보장할 수는 없습니다. 경쟁력을 높이기 위해서는 학업 성적 유지뿐만 아니라 관련 경험과 면접 준비에도 힘쓰셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+더 정확한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9943632091663488</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>보육가정상담학과 2023 합격 70퍼 컷이 5.33인데 제 동의대식 정시 산출 등급이 5.33이거든요.. 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 정보에 따르면, 보육가정상담학과는 나군 실기/실적(경기실적우수자전형)으로 모집하는 학과입니다. 따라서 해당 전형에 지원하려면 경기실적이 있어야 합니다. 만약 경기실적이 없다면 정시 등급만으로 합격할 수 없습니다.
+하지만, 경기실적이 있다면 정시 등급을 기준으로 합격 가능성을 분석해볼 수 있습니다. 2023학년도 보육가정상담학과 합격 70퍼 컷이 5.33이었으므로, 본인의 정시 등급이 이보다 높다면 합격 가능성이 있을 것입니다. 하지만, 전형에 따라서는 학생부 교과 성적과 출결 상황 등 다른 요소들도 반영되므로, 최종 결과를 예측하기 위해서는 전체 전형 요소를 고려하는 것이 중요합니다.
+또한, 경기실적우수자전형은 서류 평가와 실기/실적을 기준으로 선발하므로, 본인의 경기실적이 경쟁력 있는지 확인하는 것도 중요합니다. 제출서류가 누락되거나 불완전하다면 전형에서 불이익을 받을 수 있으니, 모든 요구사항을 충족했는지 확인하세요.
+마지막으로, 동점자 처리 기준과 모집 인원 등도 최종 결과에 영향을 줄 수 있으므로, 동의대학교 입학관리팀 웹사이트를 통해 관련 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 보육가정상담학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 5.33라면 보육가정상담학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9944583529090365</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 예술고 학생은 나군 학생부교과(농어촌학생전형)에 지원 가능합니다. 다만, 교육진흥법 시행규칙 제2조에 따른 과학고, 국제고, 외국어고, 체육고, 예술고의 경우 해당 전형에서 지원할 수 없습니다. 따라서 예술고 학생의 경우 농어촌지역 또는 도서·벽지에 소재한 특수목적고가 아닌 일반 고등학교 출신이어야 합니다. 또한, 나군 학생부교과(농어촌학생전형)의 다른 자격요건을 충족해야 하며, 이는 6년 과정과 12년 과정 중 하나를 선택하여 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9944801276529596</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요?? ㅠㅠ 가능성 없겠죠ㅠㅠ..?</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 정시 일반학생전형에서 예비 25번이라면, 합격 가능성이 매우 낮다고 볼 수 있습니다. 하지만 최종 등록 마감일까지 모든 지원자가 등록하지 않을 경우 추가로 합격할 수도 있는 변동성이 있을 수 있다는 점을 유의해야 합니다. 그러나 경쟁률이 치열한 전형인 만큼 합격 가능성을 보장하기는 어렵습니다.
+추가적으로, 예비번호는 수시로 변경될 수 있으며, 이는 다른 지원자들의 등록 여부나 대학의 입학 정책에 따라 달라질 수 있습니다. 따라서 최종 등록 마감일까지 결과를 계속 주시하고, 만약 추가 합격 기회가 생긴다면 놓치지 않도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형에서 예비 25번이 나왔다면, 합격 가능성은 여러 요인에 따라 달라질 수 있습니다. 예비 번호가 25번이라는 것은 25명의 지원자가 등록을 포기해야 합격할 수 있다는 의미입니다. 
+합격 가능성에 영향을 미치는 요인들은 다음과 같습니다:
+1. **등록 포기율**: 다른 대학에 합격한 학생들이 등록을 포기할 가능성.
+2. **모집단위의 특성**: 인기 있는 학과일수록 등록 포기율이 낮을 수 있습니다.
+3. **충원 기간**: 충원 기간 동안 얼마나 많은 학생들이 등록을 포기하는지.
+정확한 가능성을 예측하기는 어렵지만, 예비 번호가 25번이라면 어느 정도의 가능성은 있다고 볼 수 있습니다. 다만, 예비 번호가 낮을수록 합격 가능성이 높아지므로, 예비 25번은 다소 불확실한 상황일 수 있습니다.
+추가적인 정보나 구체적인 통계가 필요하다면, 입학처에 문의하거나 입학안내 홈페이지를 참고하는 것이 좋습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9945004971671698</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 농어촌학생전형으로 지원하실 때, 12년 과정의 경우 다음과 같은 서류를 제출하셔야 합니다:
+1. 초등학교 학교생활기록부 1부
+2. 중학교 학교생활기록부 1부
+3. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자의 경우)
+제출기간은 2024년 1월 3일부터 1월 12일까지이며, 제출 장소는 (우: 47340) 부산광역시 부산진구 엄광로 176에 위치한 동의대학교 입학관리팀입니다. 또한, 최종 등록자 중 고교 졸업예정자는 2024년 2월 16일까지 추가 서류를 제출하셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다:
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부
+주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9945486945450219</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>동의대학교 e비즈니스학과 정시 등급 5.3이면 최초합 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 동의대학교 e비즈니스학과 정시 합격 가능성을 정확히 예측하기는 어렵습니다. 왜냐하면 경쟁률, 모집단위별 입학정원, 그리고 전년도 합격자들의 성적 등 다양한 요소가 결과에 영향을 미칠 수 있기 때문입니다. 하지만 일반적으로 5.3등급은 경쟁이 치열한 학과에 지원할 때 다소 낮은 등급으로 간주됩니다.
+동의대학교 e비즈니스학과 정시 모집단위별 입학정원, 전년도 합격자들의 평균 성적, 그리고 최근의 입시 추세 등을 고려하여 본인의 가능성을 평가해보는 것이 좋습니다. 또한, 대학에서 제공하는 가산점이나 특별전형과 같은 추가적인 요소들도 지원 가능성을 높일 수 있습니다.
+동의대학교 e비즈니스학과에 대한 경쟁력을 향상시키기 위해서는 학업 성적 유지, 관련 동아리 활동 참여, 그리고 자기소개서 및 면접 준비와 같은 전략을 고려해 볼 수 있습니다. 또한, 동의대학교 입학처나 교육 상담 전문가에게 구체적인 조언을 구하는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 
+따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9947319797298116</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과 실기종목은 기초디자인, 산업디자인, 공예디자인 세 가지로 구성되어 있습니다. 각 실기종목에 대한 준비물, 실기주제, 화지크기 및 시간은 다음과 같습니다:
+1. 기초디자인:
+   준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구들입니다.
+   실기주제: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다(예시: 잠자리와 저울). 제공된 사물과 이미지는 다음과 같습니다:
+      - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+      - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   조건: 제공된 사물과 이미지만을 표현하고, 제공된 사물의 색상은 변경하지 않습니다. 모든 사물은 1회 이상 표현해야 합니다.
+   화지크기: 켄트지 3절입니다.
+   시험기간: 5시간입니다.
+2. 사고의 전환:
+   준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구들입니다.
+   실기주제: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다(예시: 콜라병과 계절). 제공된 사물과 이미지는 다음과 같습니다:
+      - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+      - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+   조건: 제공된 사물과 이미지를 표현하고, 제공된 사물의 색상은 변경하지 않습니다. 모든 사물은 1회 이상 표현해야 합니다.
+   화지크기: 켄트지 2절입니다.
+   시험기간: 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+### 실기종목: 기초디자인
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+  - 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+### 실기종목: 사고의 전환
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+  - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+  - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- **화지크기**: 켄트지 2절
+- **시간**: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9947405355108699</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 수능을 보지 않고도 일부 학과나 전형에 대해 정시 모집에서 지원하실 수 있습니다. 예를 들어, 학생부종합전형(학생부교과, 학생부종합)이나 실기/실적전형의 경우 수능 성적을 요구하지 않는 경우가 많습니다. 하지만, 구체적인 전형 요건과 자격 조건은 대학 및 학과별로 다를 수 있으므로, 지원하는 대학의 정시 모집요강을 반드시 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되므로, 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9952929394196605</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료·보건·생활대학의 간호학과는 나군 일반학생전형에서 교직 과정으로 22명의 학생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9953767959374513</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 나군 학생부종합(조기취업형계약학과전형) - 정원외에서는 서류평가 시 제출된 서류를 바탕으로 지원자의 학업역량, 전공적합성 및 공동체역량을 평가합니다. 소프트웨어 융합과 면접 점수보다 세특 내용을 더 중요하게 고려하지는 않습니다. 하지만, 소프트웨어 관련 동아리 활동이나 프로젝트 참여 경험이 있다면 이를 자기소개서나 포트폴리오에 잘 표현하여 본인의 전공 적합성을 보여주는 것이 좋습니다.
+추가로 준비해야 할 서류는 없으며, 제출된 서류를 바탕으로 평가합니다. 다만, 최종 등록자 중 외국고교 졸업예정자는 졸업 후 발급받은 졸업증명서(아포스티유 확인서 또는 영사확인)를 2024년 2월 16일까지 추가로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(300점 만점), 학생부 교과성적을 합쳐서 평가합니다. 
+준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9955831236618321</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서는 다군 수능(일반학생전형)으로 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9961641501032577</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 3차에서 예비 12 받았는데 합격 가능성 있을까요..? 진짜 너무 간절합니다ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 보육가정상담학과 정시모집 3차에서 예비 12번을 받으신 것으로 보아, 해당 학과에 대한 경쟁률이 매우 치열하다는 것을 의미합니다. 하지만 예비 번호 순위는 수시 합격자 등록 상황이나 등록포기자의 발생 등 다양한 요인에 따라 변동될 수 있습니다.
+합격 가능성을 정확히 예측하기는 어렵지만, 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. 충원율: 해당 학과의 전년도 충원율을 확인하여 올해의 경쟁 상황을 가늠해 보세요. 높은 충원율은 더 많은 합격자가 필요하다는 것을 의미하며, 예비 번호가 낮아질 가능성을 시사합니다.
+2. 등록포기자 발생: 일부 학생들이 등록을 포기할 경우, 예비번호를 가진 지원자들에게 기회가 생길 수 있습니다. 따라서 등록 마감일까지 해당 학과의 상황을 주시하세요.
+3. 추가합격 통보: 대학은 수시 합격자의 미등록으로 인한 결원을 충원하기 위해 추가 합격자를 발표할 수 있습니다. 추가 합격자 발표를 위한 일정을 확인하고 관련 공지를 확인하세요.
+4. 면접 성적: 일부 대학에서는 정시모집에서 면접 성적을 반영하여 합격 여부를 결정합니다. 본인의 면접 점수가 높다면, 예비 번호 순위가 낮아질 가능성을 높일 수 있습니다.
+5. 전형 요소별 가중치: 대학의 정시 모집 요강을 확인하여 각 전형 요소(수능 성적, 학생부 등)의 가중치를 알아보세요. 본인의 성적이 해당 학과에서 중요하게 고려되는 부분에 유리하다면 합격 가능성이 더 클 수 있습니다.
+6. 지원자 수와 경쟁률: 올해 해당 학과의 지원자 수를 확인하고 경쟁률을 분석하세요. 경쟁률이 낮다면 예비 번호 순위가 높아도 합격할 기회가 있을 수 있습니다.
+7. 상담 및 문의: 대학의 입학처나 담당자에게 연락하여 구체적인 상황에 대한 조언을 구해보세요. 그들은 본인의 합격 가능성을 더 잘 판단하는데 도움이 될 정보를 제공할 수 있습니다.
+결국, 동의대학교 보육가정상담학과에 최종적으로 합격하는 것은 여러 요소에 달려있으며, 예비 번호 순위는 합격 여부를 결정하는 유일한 기준이 아닙니다. 등록 마감일까지 상황을 주시하고, 추가 합격자 발표를 위한 일정을 확인하며, 본인의 합격 가능성을 높이기 위해 최선을 다하세요.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9963493807758947</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요??</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동의대학교 화학환경공학과에 지원하실 때 수능 일반학생전형으로 합격 가능성을 판단하기 위해서는 여러 요소를 고려해봐야 합니다. 먼저, 해당 학과의 정원 내 모집인원과 경쟁률을 확인해야 합니다. 또한, 본인의 수능 성적과 학생부 성적이 입학 요건에 부합하는지 살펴보아야 합니다.
+동의대학교 화학환경공학과는 2023학년도 수시모집에서 일반학생전형으로 19명을 선발했습니다. 정시 모집에서는 일반학생전형(가군)으로 45명, 농어촌학생전형(다군)으로 6명을 선발할 예정입니다.
+수능 성적은 국어, 수학, 영어, 과탐(화학 또는 물리 중 선택) 과목의 백분위 점수를 합산하여 반영됩니다. 화학환경공학과는 수능 최저등급을 요구하지 않습니다. 하지만 본인의 학생부 성적이 입학 요건에 부합하는지 확인하는 것이 중요합니다.
+동의대학교 2023학년도 정시 모집요강에 따르면, 일반학생전형(가군)의 경우 학생부 교과성적은 반영하지 않으며, 수능 성적만 반영됩니다. 농어촌학생전형(다군)의 경우 학생부 교과성적이 반영되는데, 국어, 수학, 영어, 과탐(화학 또는 물리 중 선택) 과목의 등급을 합산하여 40%를 반영합니다.
+본인의 수능 성적이 해당 학과의 합격선에 근접하고 있다면, 정시 일반학생전형으로 합격 가능성을 가질 수 있습니다. 하지만 경쟁률과 입학 요건을 고려하여 본인의 지원 전략을 신중하게 계획하는 것이 중요합니다. 또한, 동의대학교 입학관리처 홈페이지나 상담센터를 통해 최신 정보를 확인하는 것을 추천합니다.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+화학환경공학부는 공과대학에 속하며, 공과대학의 수능 일반학생전형 최초합격자 평균 점수는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+이 데이터를 바탕으로, 동의대식 정시 성적 4.25가 이 평균 점수와 비교하여 어느 정도인지 판단해야 합니다. 
+만약 4.25가 수능 4개 영역 등급 평균을 의미한다면, 이는 화학환경공학부의 평균 등급 5.59보다 높은 성적이므로 합격 가능성이 높아 보입니다. 
+하지만, 정확한 판단을 위해서는 동의대식 정시 성적 4.25가 어떤 기준으로 산출된 것인지, 그리고 다른 성적 요소(국어, 수학, 탐구, 영어 등급 등)와의 비교가 필요합니다. 
+추가적인 정보가 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9965203077631769</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2024학년도 기준으로, 동의대학교에서 다음과 같은 학부들이 학부로 분리되거나 통합되었습니다:
+1. 부동산금융·자산경영학과는 부동산자산경영학부로 분화되어 부동산투자학과와 부동산개발경영학 전공으로 나뉘었습니다.
+2. 기계자동차로봇부품공학부는 기계공학과, 로봇자동화공학과, 자동차공학과로 분리되었습니다.
+3. 신소재공학부는 신소재공학과와 고분나노공학과로 분화되었습니다.
+4. 건설공학부는 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과로 나뉘었습니다.
+5. 화학환경공학부는 화학공학과, 환경공학과, 응용화학과로 분리되었습니다.
+6. 바이오응용공학부는 의생명공학과, 바이오의약공학과, 식품공학과로 분화되었습니다.
+7. 디자인공학부는 인간공학과, 제품디자인공학과로 나뉘었습니다.
+8. 산업융합시스템공학부는 산업경영빅데이터공학과로 통합되었습니다.
+9. 창의소프트웨어공학부는 소프트웨어공학부로 통합되어 컴퓨터소프트웨어공학과 응용소프트웨어공학과로 구성됩니다.
+10. 전기전자통신공학부는 전기공학과와 전자공학과로 분리되었습니다.
+11. 음악학과는 클래식, 실용음악, 뉴미디어작곡 전공으로 분화되었습니다.
+또한, 동의대학교에서는 새로운 학과 및 전공을 신설하였습니다: 심리학과(신설), 스마트항만물류학과(신설), 창업투자경영학과(신설), 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 전공 포함)(신설), 경기지도학과(신설).
+정시모집군 변경 사항도 있습니다: 영어영문학과는 가군에서 다군으로, 호텔·컨벤션경영학과는 나군에서 가군으로, 로봇자동화공학과는 나군에서 가군으로, 토목공학과는 가군에서 나군으로, 응용화학과는 가군에서 다군으로 이동하였습니다.
+마지막으로, 학생부종합(조기취업형계약학과전형) - 정원외 서류평가 영역의 부정적 사례와 면접 평가 기준 및 방법에 대한 정보도 제공되었습니다.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 정보경영학부 → 경영정보학과, e비즈니스학과
+2. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+3. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+4. 신소재공학부 → 신소재공학과, 고분자나노공학과
+5. 건설공학부 → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+6. 화학환경공학부 → 화학공학과, 환경공학과, 응용화학과
+7. 바이오응용공학부 → 의생명공학과, 바이오의약공학과, 식품공학과
+8. 디자인공학부 → 인간공학과, 제품디자인공학과
+9. 산업융합시스템공학부 → 산업경영빅데이터공학과
+10. 창의소프트웨어공학부 → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+11. 전기전자통신공학부 → 전기공학과, 전자공학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9966412007058836</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 과학고, 국제고, 외국어고, 체육고, 예술고 등 특수목적고등학교 출신자라도 나군 학생부교과(농어촌학생전형)에 지원 가능합니다. 다만, 해당 전형은 국내 고등학교 졸업(예정)자를 대상으로 하며, 농어촌지역 또는 도서·벽지에 소재한 학교의 재학 및 거주 요건을 충족해야 합니다. 또한, 특수목적고등학교 출신자는 해당 전형의 지원 자격이 제한될 수 있으니, 자세한 사항은 동의대학교 입학처 웹사이트를 참조하시거나 담당자에게 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>아니요, 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9967920885554123</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변:  3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원 합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 간주됩니다. 따라서 이러한 상황이 발생하지 않도록 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 지정된 기간 내에 전화 연락을 받을 수 있도록 주의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9970165113010401</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과 기초디자인 실기시험에는 두 가지 주제가 있습니다:
+1. 주제 A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제 B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9971550703031306</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 동의대학교 신소재공학과 일반학생전형에 합격할 가능성을 판단하기 위해서는 정시 성적을 포함한 여러 요소들을 고려해야 합니다. 하지만 현재로서는 4.3등급의 내신 성적과 동의대식 성적산출 시 예상되는 4.1~4.2 등급을 바탕으로 합격 가능성을 추정해 볼 수 있습니다.
+동의대학교 신소재공학과 일반학생전형은 학생부 교과성적(내신)과 대학수학능력시험(수능) 성적을 모두 반영합니다. 내신은 3학년 1학기부터 2학년 2학기까지의 학업 성적 중 상위 8개 과목의 평균을 반영하며, 수능은 국어, 수학, 영어, 과탐(물리/화학/생물/지구과학 중 선택) 영역의 표준점수를 사용합니다.
+일반학생전형에서 내신과 수능 성적을 각각 50%씩 반영하므로, 두 성적 모두 경쟁력 있어야 합니다. 동의대학교 신소재공학과 합격자 평균 내신은 보통 4등급 초반에서 중반 정도입니다. 따라서 현재 예상하는 4.1~4.2 등급의 내신이 해당 전형에 충분히 경쟁력이 있을 수 있습니다.
+수능 성적이 중요한데, 특히 과탐 영역이 중요합니다. 동의대학교 신소재공학과 합격자 평균 표준점수는 보통 국어 6등급 중반에서 7등급 초반, 수학 가/나 4등급 중반에서 5등급 초반, 영어 3등급 중반 정도입니다. 과탐은 과목 선택에 따라 다르지만, 일반적으로 2~3등급을 목표로 해야 합니다.
+결론적으로 현재 예상하는 내신 성적과 수능 성적이 경쟁력이 있다면 동의대학교 신소재공학과 일반학생전형 합격 가능성을 기대할 수 있습니다. 하지만 최종 결정은 입학사정관들의 종합적인 평가와 전형별 선발 인원 등 다양한 요소에 따라 달라질 수 있음을 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+- 영어 등급: 평균 5.06, 표준 편차 1.22
+- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 낮을 수 있으므로, 합격 가능성은 낮을 수 있습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있으므로, 지원해보는 것도 고려해볼 수 있습니다.
+더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9975690589959246</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 답변: 제공된 맥락에 따르면, 2023학년도 경찰행정학과 수시모집 결과에 대한 구체적인 정보는 없습니다. 해당 학과에서 수시 모집에 관한 최신 정보를 확인하시려면 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 방문하거나 해당 기관의 입학 사무실에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>제공된 Context에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9976729793428522</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 국어국문학과에서는 가군 일반학생전형(수능)으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9978559105843098</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 수능 최저등급을 계산할 때 소수점을 자르는 절사(truncation)를 적용합니다. 따라서 사탐 과목 두 과목을 평균내어 나온 결과가 2.5라면, 소수점 이하 자리수를 무시하고 2등급으로 간주하게 됩니다. 그러므로 수능 최저등급에서 사탐 과목의 경우 2등급을 충족한 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9980019995945856</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>제 동의대 정시 성적이 3.66이 나오는데요,, 경찰행정학전공 농어촌으로 넣었는데 13일 기준으로 지금 경쟁률이 5:1이거든요 ?  작년 2020년도 경쟁률이 7:1이던데 이거 희망을 가지고 있어도 되는 부분인가요 ㅜ ㅡ ㅜ  불안해요</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 네, 경찰행정학전공 농어촌전형에 대한 제 동의대 정시 경쟁률은 현재 5:1로 나타나고 있습니다. 하지만 합격 가능성을 판단하기 위해서는 단순히 경쟁률뿐만 아니라 여러 가지 요소를 고려해야 합니다.
+경쟁률이 작년에 비해 감소했으니, 올해는 더 유리한 상황일 수 있다는 점을 기억하세요. 그러나 합격 가능성은 지원자의 내신 성적, 수능 점수, 서류 평가 등 다양한 요소에 따라 달라질 수 있습니다. 또한, 정시 모집은 수시 미충원 인원이 반영되기 때문에 최종 경쟁률과 합격 선이 변경될 수도 있음을 유의해야 합니다.
+경쟁률이 높더라도 본인의 학업 성과와 전형 요소들을 면밀히 검토하고, 지원한 대학의 합격 가능성을 평가하기 위해 입시 기관이나 상담 전문가에게 상담하는 것이 좋습니다. 또한, 경찰행정학전공에 대한 관심과 열정을 보여주는 자기소개서 작성 및 면접 준비에도 힘쓰는 것이 중요합니다.
+경쟁률이 높다고 해서 포기하지 마시고, 본인의 강점을 최대한 활용하여 최선을 다하세요. 행운을 빌겠습니다!</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9990299118868544</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 나군 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 평가에 70%, 면접 평가에 30%입니다.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>EEVE Korean</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9990791638801776</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회
+8. 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+9. 광역시·도 협회장기 종별대회
+10. 축구(남) - 춘계한국고등학교축구연맹전, 추계한국고등학교축구연맹전, 대한축구협회장배전국고등학교축구대회, 문화체육관광부장관기전국고등학교축구대회, 문화체육관광부장관배전국고등학교축구대회, 백운기전국고등학교축구대회, 전국고등축구리그(권역별고교축구리그), 전국고등축구리그왕중왕전, 무학기전국고등학교축구대회, 청룡기전국고등학교축구대회, 백록기전국고등학교축구대회, 금강대기전국고등학교축구대회, 대통령금배전국고등학교축구대회, 금석배전국고등학생축구대회, 부산MBC전국고등학생축구대회, K리그 U18 챔피언십, K리그 U18 챔피언십왕중왕전.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+### 배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+### 축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>GPT-3.5</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B102" t="n">
+        <v>0.9893677507513837</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 가지 종목으로 구성됩니다. 각 종목은 다음과 같은 내용을 포함합니다:
+1. **시각디자인**: 
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A, 주제B 중 1개를 선택하여 연결된 주제를 당일 추첨합니다. 예를 들어, 주제A가 잠자리이고 주제B가 저울이라면, 이 두 주제를 활용하여 작품을 만듭니다.
+   - **화지크기**: 켄트지3절
+   - **시험기간**: 5시간
+2. **산업디자인**:
+   - **준비물**: 시각디자인과 동일
+   - **실기주제**: 주제A, 주제B 중 1개를 선택하여 연결된 주제를 당일 추첨합니다. 예를 들어, 주제A가 콜라병이고 주제B가 계절이라면, 이 두 주제를 활용하여 작품을 만듭니다.
+   - **화지크기**: 켄트지2절
+   - **시험기간**: 5시간
+3. **공예디자인**:
+   - **준비물**: 시각디자인과 동일
+   - **실기주제**: 주제A, 주제B 중 1개를 선택하여 연결된 주제를 당일 추첨합니다. 주제에 따라 다양한 소재를 활용하여 작품을 만듭니다.
+   - **화지크기**: 시험당일 안내
+   - **시험기간**: 시험당일 안내
+이러한 실기시험을 통해 학생들은 자신의 디자인 능력과 창의성을 발휘하며, 평가를 받습니다.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+### 모집단위 및 실기종목
+- **모집단위**: 시각디자인, 산업디자인, 공예디자인
+- **실기종목**: 기초디자인, 사고의 전환
+### 종목별 배점(비율)
+- **배점**: 700점 (70%)
+### 실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+#### 기초디자인
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+  - 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- **화지크기**: 켄트지 3절
+- **시험시간**: 5시간
+#### 사고의 전환
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+  - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+  - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- **화지크기**: 켄트지 2절
+- **시험시간**: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>GPT-3.5</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
         <v>0.9921257588921871</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>디자인조형학과의 실기종목은 다음과 같습니다:
 - 시각디자인
@@ -546,7 +3890,7 @@
 이 정보를 참고하여 실기시험에 대비하시기 바랍니다.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
 ### 실기종목: 기초디자인
